--- a/Sources/NamedStars.xlsx
+++ b/Sources/NamedStars.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18195" windowHeight="10545"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18195" windowHeight="10545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stars" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="alphabetagamma-stars" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1512">
   <si>
     <t>Eridanus</t>
   </si>
@@ -2180,6 +2181,2391 @@
   </si>
   <si>
     <t>Hamal</t>
+  </si>
+  <si>
+    <t>ALP_ Eri</t>
+  </si>
+  <si>
+    <t>ALP_ Ari</t>
+  </si>
+  <si>
+    <t>ALP_ Boo</t>
+  </si>
+  <si>
+    <t>ALP_ Car</t>
+  </si>
+  <si>
+    <t>ALP_ Cas</t>
+  </si>
+  <si>
+    <t>ALP_ Cen</t>
+  </si>
+  <si>
+    <t>ALP_ Ceti</t>
+  </si>
+  <si>
+    <t>ALP_ CMa</t>
+  </si>
+  <si>
+    <t>ALP_ CMi</t>
+  </si>
+  <si>
+    <t>ALP_ Gruis</t>
+  </si>
+  <si>
+    <t>ALP_ Lyr</t>
+  </si>
+  <si>
+    <t>ALP_ Sco</t>
+  </si>
+  <si>
+    <t>ALP_ UMi</t>
+  </si>
+  <si>
+    <t>BET_ Arietis</t>
+  </si>
+  <si>
+    <t>BET_ Boötis</t>
+  </si>
+  <si>
+    <t>BET_ Canis Majoris</t>
+  </si>
+  <si>
+    <t>BET_ Canis Minoris</t>
+  </si>
+  <si>
+    <t>BET_ Carinae</t>
+  </si>
+  <si>
+    <t>BET_ Cas</t>
+  </si>
+  <si>
+    <t>BET_ Ceti</t>
+  </si>
+  <si>
+    <t>BET_ Eri</t>
+  </si>
+  <si>
+    <t>BET_ Sco</t>
+  </si>
+  <si>
+    <t>GAM_ Arietis</t>
+  </si>
+  <si>
+    <t>GAM_ Bootis</t>
+  </si>
+  <si>
+    <t>GAM_ Canis Majoris</t>
+  </si>
+  <si>
+    <t>GAM_ Cas</t>
+  </si>
+  <si>
+    <t>GAM_ Ceti</t>
+  </si>
+  <si>
+    <t>GAM_ Eri</t>
+  </si>
+  <si>
+    <t>GAM_ Gruis</t>
+  </si>
+  <si>
+    <t>GAM_ Velorum</t>
+  </si>
+  <si>
+    <t>ALP_ AND</t>
+  </si>
+  <si>
+    <t>BET_ AND</t>
+  </si>
+  <si>
+    <t>GAM_ AND</t>
+  </si>
+  <si>
+    <t>ALP_ AQR</t>
+  </si>
+  <si>
+    <t>BET_ AQR</t>
+  </si>
+  <si>
+    <t>GAM_ AQR</t>
+  </si>
+  <si>
+    <t>ALP_ AQL</t>
+  </si>
+  <si>
+    <t>BET_ AQL</t>
+  </si>
+  <si>
+    <t>GAM_ AQL</t>
+  </si>
+  <si>
+    <t>ALP_ AUR</t>
+  </si>
+  <si>
+    <t>BET_ AUR</t>
+  </si>
+  <si>
+    <t>ALP_ CVN</t>
+  </si>
+  <si>
+    <t>BET_ CVN</t>
+  </si>
+  <si>
+    <t>ALP_ CNC</t>
+  </si>
+  <si>
+    <t>BET_ CNC</t>
+  </si>
+  <si>
+    <t>GAM_ CNC</t>
+  </si>
+  <si>
+    <t>ALP_ CEP</t>
+  </si>
+  <si>
+    <t>BET_ CEP</t>
+  </si>
+  <si>
+    <t>GAM_ CEP</t>
+  </si>
+  <si>
+    <t>BET_ CEN</t>
+  </si>
+  <si>
+    <t>ALP_ COL</t>
+  </si>
+  <si>
+    <t>BET_ COL</t>
+  </si>
+  <si>
+    <t>ALP_ CRV</t>
+  </si>
+  <si>
+    <t>BET_ CRV</t>
+  </si>
+  <si>
+    <t>GAM_ CRV</t>
+  </si>
+  <si>
+    <t>ALP_ CRB</t>
+  </si>
+  <si>
+    <t>BET_ CRB</t>
+  </si>
+  <si>
+    <t>ALP_ CRT</t>
+  </si>
+  <si>
+    <t>ALP_ CRU</t>
+  </si>
+  <si>
+    <t>BET_ CRU</t>
+  </si>
+  <si>
+    <t>GAM_ CRU</t>
+  </si>
+  <si>
+    <t>ALP_CYG</t>
+  </si>
+  <si>
+    <t>BET_CYG</t>
+  </si>
+  <si>
+    <t>GAM_CYG</t>
+  </si>
+  <si>
+    <t>ALP_DRA</t>
+  </si>
+  <si>
+    <t>BET_DRA</t>
+  </si>
+  <si>
+    <t>GAM_DRA</t>
+  </si>
+  <si>
+    <t>ALP_ GEM</t>
+  </si>
+  <si>
+    <t>BET_ GEM</t>
+  </si>
+  <si>
+    <t>GAM_ GEM</t>
+  </si>
+  <si>
+    <t>ALP_ CAP</t>
+  </si>
+  <si>
+    <t>BET_ CAP</t>
+  </si>
+  <si>
+    <t>GAM_ CAP</t>
+  </si>
+  <si>
+    <t>ALP_ COM</t>
+  </si>
+  <si>
+    <t>ALP_ CRA</t>
+  </si>
+  <si>
+    <t>ALP_ HYI</t>
+  </si>
+  <si>
+    <t>ALP_ HER</t>
+  </si>
+  <si>
+    <t>BET_ HER</t>
+  </si>
+  <si>
+    <t>ALP_ LEO</t>
+  </si>
+  <si>
+    <t>BET_ LEO</t>
+  </si>
+  <si>
+    <t>GAM_ LEO</t>
+  </si>
+  <si>
+    <t>GAM_ LIB</t>
+  </si>
+  <si>
+    <t>BET_ LYR</t>
+  </si>
+  <si>
+    <t>GAM_ LYR</t>
+  </si>
+  <si>
+    <t>ALP_ SGR</t>
+  </si>
+  <si>
+    <t>BET_ SGR</t>
+  </si>
+  <si>
+    <t>GAM_ SGR</t>
+  </si>
+  <si>
+    <t>ALP_ TAU</t>
+  </si>
+  <si>
+    <t>BET_ TAU</t>
+  </si>
+  <si>
+    <t>GAM_ TAU</t>
+  </si>
+  <si>
+    <t>ALP_ TRI</t>
+  </si>
+  <si>
+    <t>BET_ TRI</t>
+  </si>
+  <si>
+    <t>GAM_ TRI</t>
+  </si>
+  <si>
+    <t>ALP_ UMA</t>
+  </si>
+  <si>
+    <t>BET_ UMA</t>
+  </si>
+  <si>
+    <t>GAM_ UMA</t>
+  </si>
+  <si>
+    <t>BET_ UMI</t>
+  </si>
+  <si>
+    <t>GAM_ UMI</t>
+  </si>
+  <si>
+    <t>ALP_ VIR</t>
+  </si>
+  <si>
+    <t>BET_ VIR</t>
+  </si>
+  <si>
+    <t>GAM_ VIR</t>
+  </si>
+  <si>
+    <t>ALP_ SER</t>
+  </si>
+  <si>
+    <t>BET_ SER</t>
+  </si>
+  <si>
+    <t>ALP_ TRA</t>
+  </si>
+  <si>
+    <t>ALP_ DEL</t>
+  </si>
+  <si>
+    <t>BET_ DEL</t>
+  </si>
+  <si>
+    <t>ALP_ LEP</t>
+  </si>
+  <si>
+    <t>BET_ LEP</t>
+  </si>
+  <si>
+    <t>ALP_OPH</t>
+  </si>
+  <si>
+    <t>BET_OPH</t>
+  </si>
+  <si>
+    <t>ALP_ORI</t>
+  </si>
+  <si>
+    <t>BET_ORI</t>
+  </si>
+  <si>
+    <t>GAM_ORI</t>
+  </si>
+  <si>
+    <t>BET_PEG</t>
+  </si>
+  <si>
+    <t>GAM_PEG</t>
+  </si>
+  <si>
+    <t>ALP_PER</t>
+  </si>
+  <si>
+    <t>BET_PER</t>
+  </si>
+  <si>
+    <t>ALP_ PSC</t>
+  </si>
+  <si>
+    <t>BET_ PSC</t>
+  </si>
+  <si>
+    <t>ALP_ PAV</t>
+  </si>
+  <si>
+    <t>ALP_ PHO</t>
+  </si>
+  <si>
+    <t>ALP_ PSA</t>
+  </si>
+  <si>
+    <t>ALP_ SGE</t>
+  </si>
+  <si>
+    <t>ALP_PEG</t>
+  </si>
+  <si>
+    <t>ALP_ EQU</t>
+  </si>
+  <si>
+    <t>ALP_ VUL</t>
+  </si>
+  <si>
+    <t>Барнарда</t>
+  </si>
+  <si>
+    <t>V799 Oph</t>
+  </si>
+  <si>
+    <t>Ван Маанена</t>
+  </si>
+  <si>
+    <t>Psc</t>
+  </si>
+  <si>
+    <t>Каптейна</t>
+  </si>
+  <si>
+    <t>Pic</t>
+  </si>
+  <si>
+    <t>Проксима</t>
+  </si>
+  <si>
+    <t>V645 Cen</t>
+  </si>
+  <si>
+    <t>Альферац (Сирраг)</t>
+  </si>
+  <si>
+    <t>α And</t>
+  </si>
+  <si>
+    <t>Каф</t>
+  </si>
+  <si>
+    <t>Альгениб</t>
+  </si>
+  <si>
+    <t>γ Peg</t>
+  </si>
+  <si>
+    <t>Шемали (Денеб Кайтос Шемали)</t>
+  </si>
+  <si>
+    <t>ι Cet</t>
+  </si>
+  <si>
+    <t>Анкаа (Наир аль Заурак)</t>
+  </si>
+  <si>
+    <t>α Phe</t>
+  </si>
+  <si>
+    <t>Шедар</t>
+  </si>
+  <si>
+    <t>Дифда (Денеб Кантос, Кейтос)</t>
+  </si>
+  <si>
+    <t>β Cet</t>
+  </si>
+  <si>
+    <t>Ахирд</t>
+  </si>
+  <si>
+    <t>Наве (Тсиг)</t>
+  </si>
+  <si>
+    <t>Марфак II</t>
+  </si>
+  <si>
+    <t>μ Cas</t>
+  </si>
+  <si>
+    <t>Денеб Альгенуби</t>
+  </si>
+  <si>
+    <t>η Cet</t>
+  </si>
+  <si>
+    <t>Мирах</t>
+  </si>
+  <si>
+    <t>β And</t>
+  </si>
+  <si>
+    <t>Марфак</t>
+  </si>
+  <si>
+    <t>Адхил</t>
+  </si>
+  <si>
+    <t>ξ And</t>
+  </si>
+  <si>
+    <t>Рукба</t>
+  </si>
+  <si>
+    <t>Полярная (Полярис, Киносура)</t>
+  </si>
+  <si>
+    <t>Альфарг</t>
+  </si>
+  <si>
+    <t>η Psc</t>
+  </si>
+  <si>
+    <t>Ахернар</t>
+  </si>
+  <si>
+    <t>Торкуларис Септентрионалис</t>
+  </si>
+  <si>
+    <t>ο Psc</t>
+  </si>
+  <si>
+    <t>Батен Кайтос</t>
+  </si>
+  <si>
+    <t>ζ Cet</t>
+  </si>
+  <si>
+    <t>Сегин</t>
+  </si>
+  <si>
+    <t>Металлах</t>
+  </si>
+  <si>
+    <t>α Tri</t>
+  </si>
+  <si>
+    <t>Мезартим</t>
+  </si>
+  <si>
+    <t>γ² Ari</t>
+  </si>
+  <si>
+    <t>Шератан</t>
+  </si>
+  <si>
+    <t>β Ari</t>
+  </si>
+  <si>
+    <t>Голова Гидры</t>
+  </si>
+  <si>
+    <t>α Hyi</t>
+  </si>
+  <si>
+    <t>Альриша (Окда, Каитайн, Реша)</t>
+  </si>
+  <si>
+    <t>α Psc</t>
+  </si>
+  <si>
+    <t>Альмак</t>
+  </si>
+  <si>
+    <t>γ1 And</t>
+  </si>
+  <si>
+    <t>Мира</t>
+  </si>
+  <si>
+    <t>ο Cet</t>
+  </si>
+  <si>
+    <t>Каффальджидхма</t>
+  </si>
+  <si>
+    <t>γ Cet</t>
+  </si>
+  <si>
+    <t>Мирам</t>
+  </si>
+  <si>
+    <t>η Per</t>
+  </si>
+  <si>
+    <t>Ангетенар</t>
+  </si>
+  <si>
+    <t>τ² Eri</t>
+  </si>
+  <si>
+    <t>Азга (Азха)</t>
+  </si>
+  <si>
+    <t>Горгонея Секунда</t>
+  </si>
+  <si>
+    <t>π Per</t>
+  </si>
+  <si>
+    <t>Акамар</t>
+  </si>
+  <si>
+    <t>θ1 Eri</t>
+  </si>
+  <si>
+    <t>Менкар</t>
+  </si>
+  <si>
+    <t>α Cet</t>
+  </si>
+  <si>
+    <t>Горгонея Терция</t>
+  </si>
+  <si>
+    <t>ρ Per</t>
+  </si>
+  <si>
+    <t>Алголь (Горгона)</t>
+  </si>
+  <si>
+    <t>β Per</t>
+  </si>
+  <si>
+    <t>Мисам</t>
+  </si>
+  <si>
+    <t>κ Per</t>
+  </si>
+  <si>
+    <t>Горгонея Кватра</t>
+  </si>
+  <si>
+    <t>ω Per</t>
+  </si>
+  <si>
+    <t>Ботейн</t>
+  </si>
+  <si>
+    <t>δ Ari</t>
+  </si>
+  <si>
+    <t>Форнацис</t>
+  </si>
+  <si>
+    <t>α For</t>
+  </si>
+  <si>
+    <t>Зибаль</t>
+  </si>
+  <si>
+    <t>ζ Eri</t>
+  </si>
+  <si>
+    <t>Мирфак</t>
+  </si>
+  <si>
+    <t>α Per</t>
+  </si>
+  <si>
+    <t>Эпсилон</t>
+  </si>
+  <si>
+    <t>ε Eri</t>
+  </si>
+  <si>
+    <t>Атик</t>
+  </si>
+  <si>
+    <t>ο Per</t>
+  </si>
+  <si>
+    <t>Рана</t>
+  </si>
+  <si>
+    <t>Целено</t>
+  </si>
+  <si>
+    <t>16 Tau</t>
+  </si>
+  <si>
+    <t>Электра</t>
+  </si>
+  <si>
+    <t>17 Tau</t>
+  </si>
+  <si>
+    <t>Тайгета</t>
+  </si>
+  <si>
+    <t>19 Tau</t>
+  </si>
+  <si>
+    <t>Майя</t>
+  </si>
+  <si>
+    <t>20 Tau</t>
+  </si>
+  <si>
+    <t>Астеропа (Стеропа I)</t>
+  </si>
+  <si>
+    <t>21 Tau</t>
+  </si>
+  <si>
+    <t>Стеропа (Астеропа II)</t>
+  </si>
+  <si>
+    <t>22 Tau</t>
+  </si>
+  <si>
+    <t>Меропа</t>
+  </si>
+  <si>
+    <t>23 Tau</t>
+  </si>
+  <si>
+    <t>Альциона</t>
+  </si>
+  <si>
+    <t>η Tau</t>
+  </si>
+  <si>
+    <t>Атлас</t>
+  </si>
+  <si>
+    <t>27 Tau</t>
+  </si>
+  <si>
+    <t>Плейона</t>
+  </si>
+  <si>
+    <t>28 Tau</t>
+  </si>
+  <si>
+    <t>Менкхиб</t>
+  </si>
+  <si>
+    <t>ζ Per</t>
+  </si>
+  <si>
+    <t>Заурак</t>
+  </si>
+  <si>
+    <t>Бейд</t>
+  </si>
+  <si>
+    <t>Кейд</t>
+  </si>
+  <si>
+    <t>ο² Eri</t>
+  </si>
+  <si>
+    <t>Хиадум I (Гиады)</t>
+  </si>
+  <si>
+    <t>γ Tau</t>
+  </si>
+  <si>
+    <t>Хиадум II</t>
+  </si>
+  <si>
+    <t>δ1 Tau</t>
+  </si>
+  <si>
+    <t>Аин</t>
+  </si>
+  <si>
+    <t>ε Tau</t>
+  </si>
+  <si>
+    <t>Альдебаран</t>
+  </si>
+  <si>
+    <t>α Tau</t>
+  </si>
+  <si>
+    <t>Тееним</t>
+  </si>
+  <si>
+    <t>υ² Eri</t>
+  </si>
+  <si>
+    <t>Скип (Скептрум)</t>
+  </si>
+  <si>
+    <t>Табит</t>
+  </si>
+  <si>
+    <t>π³ Ori</t>
+  </si>
+  <si>
+    <t>Хассалех (Кабдилинан)</t>
+  </si>
+  <si>
+    <t>ι Aur</t>
+  </si>
+  <si>
+    <t>Аль Анз (Мааз, Альмааз)</t>
+  </si>
+  <si>
+    <t>ε Aur</t>
+  </si>
+  <si>
+    <t>Садатони (Хаеди, Хедус I)</t>
+  </si>
+  <si>
+    <t>ζ Aur</t>
+  </si>
+  <si>
+    <t>Хедус II</t>
+  </si>
+  <si>
+    <t>η Aur</t>
+  </si>
+  <si>
+    <t>Курса</t>
+  </si>
+  <si>
+    <t>Капелла (Альхайот)</t>
+  </si>
+  <si>
+    <t>α Aur</t>
+  </si>
+  <si>
+    <t>Ригель (Альджебар)</t>
+  </si>
+  <si>
+    <t>β Ori</t>
+  </si>
+  <si>
+    <t>Беллатрикс</t>
+  </si>
+  <si>
+    <t>γ Ori</t>
+  </si>
+  <si>
+    <t>Эльнат (Натх)</t>
+  </si>
+  <si>
+    <t>β Tau</t>
+  </si>
+  <si>
+    <t>Нихал</t>
+  </si>
+  <si>
+    <t>β Lep</t>
+  </si>
+  <si>
+    <t>Минтака</t>
+  </si>
+  <si>
+    <t>δ Ori</t>
+  </si>
+  <si>
+    <t>Тхабит</t>
+  </si>
+  <si>
+    <t>υ Ori</t>
+  </si>
+  <si>
+    <t>Арнеб</t>
+  </si>
+  <si>
+    <t>α Lep</t>
+  </si>
+  <si>
+    <t>Мейсса (Хека)</t>
+  </si>
+  <si>
+    <t>λ Ori</t>
+  </si>
+  <si>
+    <t>Хатиса (Наир Аль Саиф)</t>
+  </si>
+  <si>
+    <t>ι Ori</t>
+  </si>
+  <si>
+    <t>Альнилам</t>
+  </si>
+  <si>
+    <t>ε Ori</t>
+  </si>
+  <si>
+    <t>Альхека</t>
+  </si>
+  <si>
+    <t>Альнитак</t>
+  </si>
+  <si>
+    <t>ζ Ori</t>
+  </si>
+  <si>
+    <t>Фет (Факт)</t>
+  </si>
+  <si>
+    <t>α Col</t>
+  </si>
+  <si>
+    <t>Саиф</t>
+  </si>
+  <si>
+    <t>κ Ori</t>
+  </si>
+  <si>
+    <t>Вазн</t>
+  </si>
+  <si>
+    <t>β Col</t>
+  </si>
+  <si>
+    <t>Цзе</t>
+  </si>
+  <si>
+    <t>λ Col</t>
+  </si>
+  <si>
+    <t>Бетельгейзе</t>
+  </si>
+  <si>
+    <t>α Ori</t>
+  </si>
+  <si>
+    <t>Приджипати</t>
+  </si>
+  <si>
+    <t>δ Aur</t>
+  </si>
+  <si>
+    <t>Менкалинан</t>
+  </si>
+  <si>
+    <t>β Aur</t>
+  </si>
+  <si>
+    <t>Теят Приор</t>
+  </si>
+  <si>
+    <t>η Gem</t>
+  </si>
+  <si>
+    <t>Фуруд</t>
+  </si>
+  <si>
+    <t>ζ CMa</t>
+  </si>
+  <si>
+    <t>Калкс (Теят Постериор)</t>
+  </si>
+  <si>
+    <t>μ Gem</t>
+  </si>
+  <si>
+    <t>Мирцам (Мурзим)</t>
+  </si>
+  <si>
+    <t>β CMa</t>
+  </si>
+  <si>
+    <t>Канопус (Сухель)</t>
+  </si>
+  <si>
+    <t>Альхена</t>
+  </si>
+  <si>
+    <t>γ Gem</t>
+  </si>
+  <si>
+    <t>Пласкетта</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Мебсута (Мелюкта)</t>
+  </si>
+  <si>
+    <t>ε Gem</t>
+  </si>
+  <si>
+    <t>Альзирр</t>
+  </si>
+  <si>
+    <t>ξ Gem</t>
+  </si>
+  <si>
+    <t>Сириус (Альхабор, Каникула)</t>
+  </si>
+  <si>
+    <t>Адара</t>
+  </si>
+  <si>
+    <t>ε CMa</t>
+  </si>
+  <si>
+    <t>Мекбуда</t>
+  </si>
+  <si>
+    <t>ζ Gem</t>
+  </si>
+  <si>
+    <t>Мулифен (Изис)</t>
+  </si>
+  <si>
+    <t>γ CMa</t>
+  </si>
+  <si>
+    <t>Везен</t>
+  </si>
+  <si>
+    <t>δ CMa</t>
+  </si>
+  <si>
+    <t>Васат</t>
+  </si>
+  <si>
+    <t>δ Gem</t>
+  </si>
+  <si>
+    <t>Пропус</t>
+  </si>
+  <si>
+    <t>ι Gem</t>
+  </si>
+  <si>
+    <t>Алюдра</t>
+  </si>
+  <si>
+    <t>η CMa</t>
+  </si>
+  <si>
+    <t>Гомейза</t>
+  </si>
+  <si>
+    <t>β CMi</t>
+  </si>
+  <si>
+    <t>Кастор</t>
+  </si>
+  <si>
+    <t>α Gem</t>
+  </si>
+  <si>
+    <t>Процион (Эльгомайза)</t>
+  </si>
+  <si>
+    <t>Поллукс</t>
+  </si>
+  <si>
+    <t>β Gem</t>
+  </si>
+  <si>
+    <t>Асмидиске</t>
+  </si>
+  <si>
+    <t>ξ Pup</t>
+  </si>
+  <si>
+    <t>Наос</t>
+  </si>
+  <si>
+    <t>ζ Pup</t>
+  </si>
+  <si>
+    <t>Тегмен</t>
+  </si>
+  <si>
+    <t>ζ1 Cnc</t>
+  </si>
+  <si>
+    <t>Регор (Сухель Альмухлиф)</t>
+  </si>
+  <si>
+    <t>γ² Vel</t>
+  </si>
+  <si>
+    <t>Аль Тарф</t>
+  </si>
+  <si>
+    <t>β Cnc</t>
+  </si>
+  <si>
+    <t>Альскяукат (Мабсутат)</t>
+  </si>
+  <si>
+    <t>31 Lyn</t>
+  </si>
+  <si>
+    <t>Авиор</t>
+  </si>
+  <si>
+    <t>ε Car</t>
+  </si>
+  <si>
+    <t>Мусцида</t>
+  </si>
+  <si>
+    <t>π² UMa</t>
+  </si>
+  <si>
+    <t>Аль Минлиар аль Шуйа</t>
+  </si>
+  <si>
+    <t>σ Hya</t>
+  </si>
+  <si>
+    <t>Презепа</t>
+  </si>
+  <si>
+    <t>ι Cnc</t>
+  </si>
+  <si>
+    <t>Азеллюс Бореалис (Северный Асель)</t>
+  </si>
+  <si>
+    <t>γ Cnc</t>
+  </si>
+  <si>
+    <t>Азеллюс Аустралис (Южный Асель)</t>
+  </si>
+  <si>
+    <t>δ Cnc</t>
+  </si>
+  <si>
+    <t>Талитха Бореалис</t>
+  </si>
+  <si>
+    <t>ι UMa</t>
+  </si>
+  <si>
+    <t>Акубенс (Сертан)</t>
+  </si>
+  <si>
+    <t>α Cnc</t>
+  </si>
+  <si>
+    <t>Талитха Австралис</t>
+  </si>
+  <si>
+    <t>κ UMa</t>
+  </si>
+  <si>
+    <t>Альсухайль</t>
+  </si>
+  <si>
+    <t>λ Vel</t>
+  </si>
+  <si>
+    <t>Миаплацид</t>
+  </si>
+  <si>
+    <t>β Car</t>
+  </si>
+  <si>
+    <t>Турайс (Аспидиск, Скутул)</t>
+  </si>
+  <si>
+    <t>ι Car</t>
+  </si>
+  <si>
+    <t>Аль Минлиар аль Асад</t>
+  </si>
+  <si>
+    <t>κ Leo</t>
+  </si>
+  <si>
+    <t>Альфард</t>
+  </si>
+  <si>
+    <t>α Hya</t>
+  </si>
+  <si>
+    <t>Укдах 1</t>
+  </si>
+  <si>
+    <t>τ1 Hya</t>
+  </si>
+  <si>
+    <t>Альтерф</t>
+  </si>
+  <si>
+    <t>λ Leo</t>
+  </si>
+  <si>
+    <t>Укдах 2</t>
+  </si>
+  <si>
+    <t>τ² Hya</t>
+  </si>
+  <si>
+    <t>Субра</t>
+  </si>
+  <si>
+    <t>ο Leo</t>
+  </si>
+  <si>
+    <t>Альгенуби (Рас Элас Эд Аустралис)</t>
+  </si>
+  <si>
+    <t>ε Leo</t>
+  </si>
+  <si>
+    <t>Расаляс (Рас Элас Эд Бореалис)</t>
+  </si>
+  <si>
+    <t>μ Leo</t>
+  </si>
+  <si>
+    <t>Цеен Ке</t>
+  </si>
+  <si>
+    <t>φ Vel</t>
+  </si>
+  <si>
+    <t>Минхир</t>
+  </si>
+  <si>
+    <t>υ² Hya</t>
+  </si>
+  <si>
+    <t>Аль Джабах</t>
+  </si>
+  <si>
+    <t>η Leo</t>
+  </si>
+  <si>
+    <t>Регул (Рэкс)</t>
+  </si>
+  <si>
+    <t>α Leo</t>
+  </si>
+  <si>
+    <t>Тания Бореалис</t>
+  </si>
+  <si>
+    <t>λ UMa</t>
+  </si>
+  <si>
+    <t>Алдхафера</t>
+  </si>
+  <si>
+    <t>ζ Leo</t>
+  </si>
+  <si>
+    <t>Альджеба</t>
+  </si>
+  <si>
+    <t>γ1 Leo</t>
+  </si>
+  <si>
+    <t>Тания Австралис</t>
+  </si>
+  <si>
+    <t>μ UMa</t>
+  </si>
+  <si>
+    <t>Преципуя</t>
+  </si>
+  <si>
+    <t>46 LMi</t>
+  </si>
+  <si>
+    <t>Алькес</t>
+  </si>
+  <si>
+    <t>α Crt</t>
+  </si>
+  <si>
+    <t>Мерак</t>
+  </si>
+  <si>
+    <t>β UMa</t>
+  </si>
+  <si>
+    <t>Дубхе (Ак)</t>
+  </si>
+  <si>
+    <t>α UMa</t>
+  </si>
+  <si>
+    <t>Альшарасиф</t>
+  </si>
+  <si>
+    <t>β Crt</t>
+  </si>
+  <si>
+    <t>Зосма (Дур)</t>
+  </si>
+  <si>
+    <t>δ Leo</t>
+  </si>
+  <si>
+    <t>Хорт (Кокса)</t>
+  </si>
+  <si>
+    <t>θ Leo</t>
+  </si>
+  <si>
+    <t>Алюла Австралис</t>
+  </si>
+  <si>
+    <t>ξ UMa</t>
+  </si>
+  <si>
+    <t>Алюла Бореалис</t>
+  </si>
+  <si>
+    <t>ν UMa</t>
+  </si>
+  <si>
+    <t>Лябрум</t>
+  </si>
+  <si>
+    <t>δ Crt</t>
+  </si>
+  <si>
+    <t>Це Ценг</t>
+  </si>
+  <si>
+    <t>ι Leo</t>
+  </si>
+  <si>
+    <t>Гианфар (Джансар)</t>
+  </si>
+  <si>
+    <t>λ Dra</t>
+  </si>
+  <si>
+    <t>Эль Кофрах</t>
+  </si>
+  <si>
+    <t>χ UMa</t>
+  </si>
+  <si>
+    <t>Денебола</t>
+  </si>
+  <si>
+    <t>β Leo</t>
+  </si>
+  <si>
+    <t>Завийява (Алараф)</t>
+  </si>
+  <si>
+    <t>β Vir</t>
+  </si>
+  <si>
+    <t>Фекда (Фад)</t>
+  </si>
+  <si>
+    <t>γ UMa</t>
+  </si>
+  <si>
+    <t>Альхита (Алькиба)</t>
+  </si>
+  <si>
+    <t>α Crv</t>
+  </si>
+  <si>
+    <t>Минкар</t>
+  </si>
+  <si>
+    <t>ε Crv</t>
+  </si>
+  <si>
+    <t>Мегрец</t>
+  </si>
+  <si>
+    <t>δ UMa</t>
+  </si>
+  <si>
+    <t>Гиенах (Дженах Гхураб)</t>
+  </si>
+  <si>
+    <t>γ Crv</t>
+  </si>
+  <si>
+    <t>Заниах</t>
+  </si>
+  <si>
+    <t>η Vir</t>
+  </si>
+  <si>
+    <t>Акрукс</t>
+  </si>
+  <si>
+    <t>α1 Cru</t>
+  </si>
+  <si>
+    <t>Киссин (Кома Береницес)</t>
+  </si>
+  <si>
+    <t>γ Com</t>
+  </si>
+  <si>
+    <t>Альгораб</t>
+  </si>
+  <si>
+    <t>δ Crv</t>
+  </si>
+  <si>
+    <t>Гакрукс</t>
+  </si>
+  <si>
+    <t>γ Cru</t>
+  </si>
+  <si>
+    <t>Хара (Астерион)</t>
+  </si>
+  <si>
+    <t>β CVn</t>
+  </si>
+  <si>
+    <t>Краз</t>
+  </si>
+  <si>
+    <t>β Crv</t>
+  </si>
+  <si>
+    <t>Мухлифайн</t>
+  </si>
+  <si>
+    <t>γ Cen</t>
+  </si>
+  <si>
+    <t>Поррима (Арих)</t>
+  </si>
+  <si>
+    <t>γ Vir</t>
+  </si>
+  <si>
+    <t>Бекрукс (Мимоза)</t>
+  </si>
+  <si>
+    <t>β Cru</t>
+  </si>
+  <si>
+    <t>Алиот</t>
+  </si>
+  <si>
+    <t>ε UMa</t>
+  </si>
+  <si>
+    <t>Авва (Аува)</t>
+  </si>
+  <si>
+    <t>δ Vir</t>
+  </si>
+  <si>
+    <t>Сердце Карла (Кор Кароли)</t>
+  </si>
+  <si>
+    <t>α² CVn</t>
+  </si>
+  <si>
+    <t>Виндемиатрикс</t>
+  </si>
+  <si>
+    <t>Диадема</t>
+  </si>
+  <si>
+    <t>α Com</t>
+  </si>
+  <si>
+    <t>Альдафирах</t>
+  </si>
+  <si>
+    <t>β Com</t>
+  </si>
+  <si>
+    <t>Маркеб</t>
+  </si>
+  <si>
+    <t>γ Hya</t>
+  </si>
+  <si>
+    <t>Мицар</t>
+  </si>
+  <si>
+    <t>ζ UMa</t>
+  </si>
+  <si>
+    <t>Спика</t>
+  </si>
+  <si>
+    <t>α Vir</t>
+  </si>
+  <si>
+    <t>Алькор (Сайдак)</t>
+  </si>
+  <si>
+    <t>Хезе</t>
+  </si>
+  <si>
+    <t>ζ Vir</t>
+  </si>
+  <si>
+    <t>Бенетнаш (Алькаид)</t>
+  </si>
+  <si>
+    <t>η UMa</t>
+  </si>
+  <si>
+    <t>Муфрид</t>
+  </si>
+  <si>
+    <t>η Boo</t>
+  </si>
+  <si>
+    <t>Хадар (Агена)</t>
+  </si>
+  <si>
+    <t>β Cen</t>
+  </si>
+  <si>
+    <t>Менкент</t>
+  </si>
+  <si>
+    <t>θ Cen</t>
+  </si>
+  <si>
+    <t>Тубан</t>
+  </si>
+  <si>
+    <t>α Dra</t>
+  </si>
+  <si>
+    <t>Азеллюс Терциус</t>
+  </si>
+  <si>
+    <t>κ Boo</t>
+  </si>
+  <si>
+    <t>Сирма</t>
+  </si>
+  <si>
+    <t>ι Vir</t>
+  </si>
+  <si>
+    <t>Арктур</t>
+  </si>
+  <si>
+    <t>Азеллюс Секундус</t>
+  </si>
+  <si>
+    <t>ι Boo</t>
+  </si>
+  <si>
+    <t>Хамбалия (Камбала)</t>
+  </si>
+  <si>
+    <t>λ Vir</t>
+  </si>
+  <si>
+    <t>Азеллюс Примус</t>
+  </si>
+  <si>
+    <t>θ Boo</t>
+  </si>
+  <si>
+    <t>Харис (Сегинус)</t>
+  </si>
+  <si>
+    <t>γ Boo</t>
+  </si>
+  <si>
+    <t>Толиман (Ригиль Центаурус, Бунгула)</t>
+  </si>
+  <si>
+    <t>Рийл Аль Авва</t>
+  </si>
+  <si>
+    <t>μ Vir</t>
+  </si>
+  <si>
+    <t>Ицар (Пульхеррима)</t>
+  </si>
+  <si>
+    <t>Зубен Эльгенуби (Киффа Аустралис)</t>
+  </si>
+  <si>
+    <t>α² Lib</t>
+  </si>
+  <si>
+    <t>Мерга</t>
+  </si>
+  <si>
+    <t>38 Boo</t>
+  </si>
+  <si>
+    <t>Кохаб</t>
+  </si>
+  <si>
+    <t>β UMi</t>
+  </si>
+  <si>
+    <t>Ке Кван</t>
+  </si>
+  <si>
+    <t>κ Cen</t>
+  </si>
+  <si>
+    <t>Зубен Эльакриби</t>
+  </si>
+  <si>
+    <t>δ Lib</t>
+  </si>
+  <si>
+    <t>Неккар (Мерез)</t>
+  </si>
+  <si>
+    <t>β Boo</t>
+  </si>
+  <si>
+    <t>Брахиум (Корну)</t>
+  </si>
+  <si>
+    <t>σ Lib</t>
+  </si>
+  <si>
+    <t>Принцепс</t>
+  </si>
+  <si>
+    <t>δ Boo</t>
+  </si>
+  <si>
+    <t>Зубенеш (Зубен Эльскемали)</t>
+  </si>
+  <si>
+    <t>β Lib</t>
+  </si>
+  <si>
+    <t>Малая Феркад</t>
+  </si>
+  <si>
+    <t>11 UMi</t>
+  </si>
+  <si>
+    <t>Алькалюропк (Алкалуропс)</t>
+  </si>
+  <si>
+    <t>μ Boo</t>
+  </si>
+  <si>
+    <t>Феркад (Большая Феркад)</t>
+  </si>
+  <si>
+    <t>γ UMi</t>
+  </si>
+  <si>
+    <t>Эд-Асик</t>
+  </si>
+  <si>
+    <t>ι Dra</t>
+  </si>
+  <si>
+    <t>Нусакан</t>
+  </si>
+  <si>
+    <t>β CrB</t>
+  </si>
+  <si>
+    <t>Зубен Эльакраб</t>
+  </si>
+  <si>
+    <t>γ Lib</t>
+  </si>
+  <si>
+    <t>Гемма (Гнозия)</t>
+  </si>
+  <si>
+    <t>α CrB</t>
+  </si>
+  <si>
+    <t>Цегинус</t>
+  </si>
+  <si>
+    <t>φ Boo</t>
+  </si>
+  <si>
+    <t>Аль Хауд</t>
+  </si>
+  <si>
+    <t>θ UMa</t>
+  </si>
+  <si>
+    <t>Унук Эльхайя</t>
+  </si>
+  <si>
+    <t>α Ser</t>
+  </si>
+  <si>
+    <t>Чау</t>
+  </si>
+  <si>
+    <t>β Ser</t>
+  </si>
+  <si>
+    <t>Зубен Хакраби</t>
+  </si>
+  <si>
+    <t>θ Lib</t>
+  </si>
+  <si>
+    <t>Джубба (Изидис)</t>
+  </si>
+  <si>
+    <t>δ Sco</t>
+  </si>
+  <si>
+    <t>Блистающая</t>
+  </si>
+  <si>
+    <t>T CrB</t>
+  </si>
+  <si>
+    <t>Акраб</t>
+  </si>
+  <si>
+    <t>β1 Sco</t>
+  </si>
+  <si>
+    <t>Джабхат</t>
+  </si>
+  <si>
+    <t>Альакраб</t>
+  </si>
+  <si>
+    <t>ω² Sco</t>
+  </si>
+  <si>
+    <t>Марсик</t>
+  </si>
+  <si>
+    <t>κ Her</t>
+  </si>
+  <si>
+    <t>Джаббах</t>
+  </si>
+  <si>
+    <t>Йед Приор</t>
+  </si>
+  <si>
+    <t>δ Oph</t>
+  </si>
+  <si>
+    <t>Йед Постериор</t>
+  </si>
+  <si>
+    <t>ε Oph</t>
+  </si>
+  <si>
+    <t>Альният</t>
+  </si>
+  <si>
+    <t>Каям (Куйам)</t>
+  </si>
+  <si>
+    <t>ω Her</t>
+  </si>
+  <si>
+    <t>Антарес</t>
+  </si>
+  <si>
+    <t>Корнефорос</t>
+  </si>
+  <si>
+    <t>β Her</t>
+  </si>
+  <si>
+    <t>Марфик</t>
+  </si>
+  <si>
+    <t>λ Oph</t>
+  </si>
+  <si>
+    <t>Хан</t>
+  </si>
+  <si>
+    <t>ζ Oph</t>
+  </si>
+  <si>
+    <t>Атрия</t>
+  </si>
+  <si>
+    <t>α TrA</t>
+  </si>
+  <si>
+    <t>Арракис</t>
+  </si>
+  <si>
+    <t>μ Dra</t>
+  </si>
+  <si>
+    <t>Сабик</t>
+  </si>
+  <si>
+    <t>η Oph</t>
+  </si>
+  <si>
+    <t>Граффиас</t>
+  </si>
+  <si>
+    <t>η Sco</t>
+  </si>
+  <si>
+    <t>Альдхибах (Кау Пи, Нодус I)</t>
+  </si>
+  <si>
+    <t>ζ Dra</t>
+  </si>
+  <si>
+    <t>Рас Альгети</t>
+  </si>
+  <si>
+    <t>α Her</t>
+  </si>
+  <si>
+    <t>Сарин</t>
+  </si>
+  <si>
+    <t>δ Her</t>
+  </si>
+  <si>
+    <t>Лесатх</t>
+  </si>
+  <si>
+    <t>Хоу (Ара)</t>
+  </si>
+  <si>
+    <t>α Ara</t>
+  </si>
+  <si>
+    <t>Маасым</t>
+  </si>
+  <si>
+    <t>λ Her</t>
+  </si>
+  <si>
+    <t>Шаула</t>
+  </si>
+  <si>
+    <t>Растабан (Альваид)</t>
+  </si>
+  <si>
+    <t>β Dra</t>
+  </si>
+  <si>
+    <t>Саргас</t>
+  </si>
+  <si>
+    <t>Кума</t>
+  </si>
+  <si>
+    <t>ν Dra</t>
+  </si>
+  <si>
+    <t>Рас Альхаг</t>
+  </si>
+  <si>
+    <t>α Oph</t>
+  </si>
+  <si>
+    <t>Алахфар</t>
+  </si>
+  <si>
+    <t>ω Dra</t>
+  </si>
+  <si>
+    <t>Цельбальрай</t>
+  </si>
+  <si>
+    <t>β Oph</t>
+  </si>
+  <si>
+    <t>Дзибан</t>
+  </si>
+  <si>
+    <t>ψ1 Dra</t>
+  </si>
+  <si>
+    <t>Грумиум</t>
+  </si>
+  <si>
+    <t>ξ Dra</t>
+  </si>
+  <si>
+    <t>Синистра</t>
+  </si>
+  <si>
+    <t>ν Oph</t>
+  </si>
+  <si>
+    <t>Этамин</t>
+  </si>
+  <si>
+    <t>γ Dra</t>
+  </si>
+  <si>
+    <t>Нушаба (Наш, Альназл)</t>
+  </si>
+  <si>
+    <t>γ² Sgr</t>
+  </si>
+  <si>
+    <t>Йильдун</t>
+  </si>
+  <si>
+    <t>δ UMi</t>
+  </si>
+  <si>
+    <t>Альталимайн (Полис)</t>
+  </si>
+  <si>
+    <t>μ Sgr</t>
+  </si>
+  <si>
+    <t>Медия (Каус Медиус)</t>
+  </si>
+  <si>
+    <t>δ Sgr</t>
+  </si>
+  <si>
+    <t>Каус Аустралис</t>
+  </si>
+  <si>
+    <t>ε Sgr</t>
+  </si>
+  <si>
+    <t>Альатфар</t>
+  </si>
+  <si>
+    <t>μ Lyr</t>
+  </si>
+  <si>
+    <t>Каус Бореалис</t>
+  </si>
+  <si>
+    <t>λ Sgr</t>
+  </si>
+  <si>
+    <t>Вега</t>
+  </si>
+  <si>
+    <t>Шелиак</t>
+  </si>
+  <si>
+    <t>β Lyr</t>
+  </si>
+  <si>
+    <t>Аин Аль Рами</t>
+  </si>
+  <si>
+    <t>ν1 Sgr</t>
+  </si>
+  <si>
+    <t>Нунки</t>
+  </si>
+  <si>
+    <t>σ Sgr</t>
+  </si>
+  <si>
+    <t>Алия</t>
+  </si>
+  <si>
+    <t>θ1 Ser</t>
+  </si>
+  <si>
+    <t>Денеб Эльокаб II</t>
+  </si>
+  <si>
+    <t>ε Aql</t>
+  </si>
+  <si>
+    <t>Суляфат</t>
+  </si>
+  <si>
+    <t>γ Lyr</t>
+  </si>
+  <si>
+    <t>Асцелла</t>
+  </si>
+  <si>
+    <t>ζ Sgr</t>
+  </si>
+  <si>
+    <t>Манубриум 1</t>
+  </si>
+  <si>
+    <t>ο Sgr</t>
+  </si>
+  <si>
+    <t>Южнополярная (Поларис Аустралис)</t>
+  </si>
+  <si>
+    <t>σ Oct</t>
+  </si>
+  <si>
+    <t>Денеб Эльокаб I</t>
+  </si>
+  <si>
+    <t>ζ Aql</t>
+  </si>
+  <si>
+    <t>Аль Талимайн 2</t>
+  </si>
+  <si>
+    <t>λ Aql</t>
+  </si>
+  <si>
+    <t>Альфекка Меридиана</t>
+  </si>
+  <si>
+    <t>α CrA</t>
+  </si>
+  <si>
+    <t>Альбальдах</t>
+  </si>
+  <si>
+    <t>π Sgr</t>
+  </si>
+  <si>
+    <t>Альадфар</t>
+  </si>
+  <si>
+    <t>η Lyr</t>
+  </si>
+  <si>
+    <t>Альтаис (Нодус Секундус, Нодус II, Альдиб)</t>
+  </si>
+  <si>
+    <t>δ Dra</t>
+  </si>
+  <si>
+    <t>Аркаб Приор</t>
+  </si>
+  <si>
+    <t>β1 Sgr</t>
+  </si>
+  <si>
+    <t>Аркаб Постериор</t>
+  </si>
+  <si>
+    <t>β² Sgr</t>
+  </si>
+  <si>
+    <t>Рукбат (Альрами)</t>
+  </si>
+  <si>
+    <t>α Sgr</t>
+  </si>
+  <si>
+    <t>Денеб Окаб</t>
+  </si>
+  <si>
+    <t>δ Aql</t>
+  </si>
+  <si>
+    <t>Ансер</t>
+  </si>
+  <si>
+    <t>α Vul</t>
+  </si>
+  <si>
+    <t>Альбирео</t>
+  </si>
+  <si>
+    <t>β1 Cyg</t>
+  </si>
+  <si>
+    <t>Аль Талимайн 1</t>
+  </si>
+  <si>
+    <t>ι Aql</t>
+  </si>
+  <si>
+    <t>Альсафи</t>
+  </si>
+  <si>
+    <t>σ Dra</t>
+  </si>
+  <si>
+    <t>Шам</t>
+  </si>
+  <si>
+    <t>α Sge</t>
+  </si>
+  <si>
+    <t>Таразед</t>
+  </si>
+  <si>
+    <t>γ Aql</t>
+  </si>
+  <si>
+    <t>α Aql</t>
+  </si>
+  <si>
+    <t>Тиль (Кин Ю)</t>
+  </si>
+  <si>
+    <t>ε Dra</t>
+  </si>
+  <si>
+    <t>Теребеллум 2</t>
+  </si>
+  <si>
+    <t>ω Sgr</t>
+  </si>
+  <si>
+    <t>Альшаин</t>
+  </si>
+  <si>
+    <t>β Aql</t>
+  </si>
+  <si>
+    <t>Теребеллум 1</t>
+  </si>
+  <si>
+    <t>59 Sgr</t>
+  </si>
+  <si>
+    <t>Манубриум 2</t>
+  </si>
+  <si>
+    <t>θ1 Sgr</t>
+  </si>
+  <si>
+    <t>Альджеди 1 (Прима Гиеди)</t>
+  </si>
+  <si>
+    <t>α1 Cap</t>
+  </si>
+  <si>
+    <t>Греди (Секунда Гиеди, Альджеди 2)</t>
+  </si>
+  <si>
+    <t>α² Cap</t>
+  </si>
+  <si>
+    <t>Альшат</t>
+  </si>
+  <si>
+    <t>ν Cap</t>
+  </si>
+  <si>
+    <t>Дабих</t>
+  </si>
+  <si>
+    <t>β Cap</t>
+  </si>
+  <si>
+    <t>Пикок</t>
+  </si>
+  <si>
+    <t>α Pav</t>
+  </si>
+  <si>
+    <t>Садр</t>
+  </si>
+  <si>
+    <t>γ Cyg</t>
+  </si>
+  <si>
+    <t>Окулус</t>
+  </si>
+  <si>
+    <t>π Cap</t>
+  </si>
+  <si>
+    <t>Бос</t>
+  </si>
+  <si>
+    <t>ρ Cap</t>
+  </si>
+  <si>
+    <t>Рукба Альджаджа</t>
+  </si>
+  <si>
+    <t>ω² Cyg</t>
+  </si>
+  <si>
+    <t>Денеб Дулфим</t>
+  </si>
+  <si>
+    <t>ε Del</t>
+  </si>
+  <si>
+    <t>Ротанев</t>
+  </si>
+  <si>
+    <t>β Del</t>
+  </si>
+  <si>
+    <t>Суалокин</t>
+  </si>
+  <si>
+    <t>α Del</t>
+  </si>
+  <si>
+    <t>Денеб (Аридиф, Денеб Адиге)</t>
+  </si>
+  <si>
+    <t>α Cyg</t>
+  </si>
+  <si>
+    <t>Дженах</t>
+  </si>
+  <si>
+    <t>ε Cyg</t>
+  </si>
+  <si>
+    <t>Альбали</t>
+  </si>
+  <si>
+    <t>ε Aqr</t>
+  </si>
+  <si>
+    <t>Армус (Форамен)</t>
+  </si>
+  <si>
+    <t>η Cap</t>
+  </si>
+  <si>
+    <t>Дорсум</t>
+  </si>
+  <si>
+    <t>θ Cap</t>
+  </si>
+  <si>
+    <t>Китальфа</t>
+  </si>
+  <si>
+    <t>α Equ</t>
+  </si>
+  <si>
+    <t>Альдерамин</t>
+  </si>
+  <si>
+    <t>α Cep</t>
+  </si>
+  <si>
+    <t>Садалсууд</t>
+  </si>
+  <si>
+    <t>β Aqr</t>
+  </si>
+  <si>
+    <t>Альфирк</t>
+  </si>
+  <si>
+    <t>β Cep</t>
+  </si>
+  <si>
+    <t>Кастра</t>
+  </si>
+  <si>
+    <t>ε Cap</t>
+  </si>
+  <si>
+    <t>Нашира</t>
+  </si>
+  <si>
+    <t>γ Cap</t>
+  </si>
+  <si>
+    <t>Азельфафага</t>
+  </si>
+  <si>
+    <t>π1 Cyg</t>
+  </si>
+  <si>
+    <t>Эниф</t>
+  </si>
+  <si>
+    <t>ε Peg</t>
+  </si>
+  <si>
+    <t>Гранатовая (Эракис)</t>
+  </si>
+  <si>
+    <t>μ Cep</t>
+  </si>
+  <si>
+    <t>Шедди (Денеб Альджеди)</t>
+  </si>
+  <si>
+    <t>δ Cap</t>
+  </si>
+  <si>
+    <t>Аль Данаб</t>
+  </si>
+  <si>
+    <t>γ Gru</t>
+  </si>
+  <si>
+    <t>Садалмелек</t>
+  </si>
+  <si>
+    <t>α Aqr</t>
+  </si>
+  <si>
+    <t>Элькурхах (Курдах)</t>
+  </si>
+  <si>
+    <t>ξ Cep</t>
+  </si>
+  <si>
+    <t>Альнаир</t>
+  </si>
+  <si>
+    <t>α Gru</t>
+  </si>
+  <si>
+    <t>Бахам</t>
+  </si>
+  <si>
+    <t>θ Peg</t>
+  </si>
+  <si>
+    <t>Курхах</t>
+  </si>
+  <si>
+    <t>ζ Cep</t>
+  </si>
+  <si>
+    <t>Анха</t>
+  </si>
+  <si>
+    <t>θ Aqr</t>
+  </si>
+  <si>
+    <t>Садахбия</t>
+  </si>
+  <si>
+    <t>γ Aqr</t>
+  </si>
+  <si>
+    <t>Сеат</t>
+  </si>
+  <si>
+    <t>π Aqr</t>
+  </si>
+  <si>
+    <t>Ситула</t>
+  </si>
+  <si>
+    <t>κ Aqr</t>
+  </si>
+  <si>
+    <t>Хомам</t>
+  </si>
+  <si>
+    <t>ζ Peg</t>
+  </si>
+  <si>
+    <t>Матар</t>
+  </si>
+  <si>
+    <t>η Peg</t>
+  </si>
+  <si>
+    <t>Садалбари</t>
+  </si>
+  <si>
+    <t>λ Peg</t>
+  </si>
+  <si>
+    <t>Скат</t>
+  </si>
+  <si>
+    <t>δ Aqr</t>
+  </si>
+  <si>
+    <t>Фомальгаут</t>
+  </si>
+  <si>
+    <t>α PsA</t>
+  </si>
+  <si>
+    <t>Фум Альсамаках</t>
+  </si>
+  <si>
+    <t>β Psc</t>
+  </si>
+  <si>
+    <t>Шеат</t>
+  </si>
+  <si>
+    <t>β Peg</t>
+  </si>
+  <si>
+    <t>Маркаб</t>
+  </si>
+  <si>
+    <t>α Peg</t>
+  </si>
+  <si>
+    <t>Сальма (Керб, Салм)</t>
+  </si>
+  <si>
+    <t>τ Peg</t>
+  </si>
+  <si>
+    <t>Альраи (Эрраи)</t>
+  </si>
+  <si>
+    <t>γ Cep</t>
+  </si>
+  <si>
+    <t>Алькальб Альраи</t>
+  </si>
+  <si>
+    <t>ρ Cep</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +4642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2264,6 +4650,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2568,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10073,28 +12460,29 @@
   <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
       </c>
       <c r="C2" t="s">
@@ -10103,9 +12491,9 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" t="s">
         <v>593</v>
       </c>
       <c r="C3" t="s">
@@ -10114,9 +12502,9 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
       <c r="C4" t="s">
@@ -10124,8 +12512,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>372</v>
+      <c r="A5" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>716</v>
@@ -10136,71 +12524,71 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>614</v>
+      <c r="A13" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>577</v>
+      <c r="A14" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>578</v>
@@ -10208,1197 +12596,5511 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B16" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B17" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B18" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B19" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B20" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B24" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B29" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B31" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B32" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B33" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B35" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>378</v>
+    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B37" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>574</v>
+        <v>823</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B39" t="s">
         <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B40" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>563</v>
+        <v>827</v>
+      </c>
+      <c r="B41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>254</v>
+        <v>836</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>530</v>
+        <v>840</v>
+      </c>
+      <c r="B43" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>446</v>
+        <v>832</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>832</v>
+      </c>
+      <c r="B45" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>491</v>
+        <v>837</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>838</v>
+      </c>
+      <c r="B47" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>338</v>
+        <v>834</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>839</v>
+      </c>
+      <c r="B49" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>622</v>
+        <v>801</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B51" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B52" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>686</v>
+        <v>804</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>807</v>
+      </c>
+      <c r="B55" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>328</v>
+        <v>807</v>
+      </c>
+      <c r="B56" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B58" t="s">
         <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>319</v>
+        <v>815</v>
+      </c>
+      <c r="B60" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>638</v>
+        <v>842</v>
+      </c>
+      <c r="B61" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>434</v>
+        <v>748</v>
+      </c>
+      <c r="B62" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>488</v>
+        <v>751</v>
+      </c>
+      <c r="B63" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>595</v>
+        <v>754</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>730</v>
+      </c>
+      <c r="B65" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>628</v>
+        <v>757</v>
+      </c>
+      <c r="B66" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>462</v>
+        <v>731</v>
+      </c>
+      <c r="B67" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>517</v>
+        <v>761</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>158</v>
+        <v>732</v>
+      </c>
+      <c r="B69" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>493</v>
+        <v>732</v>
+      </c>
+      <c r="B70" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>503</v>
+        <v>733</v>
+      </c>
+      <c r="B71" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>361</v>
+        <v>759</v>
+      </c>
+      <c r="B72" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>759</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>279</v>
+        <v>788</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>290</v>
+        <v>734</v>
+      </c>
+      <c r="B75" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>477</v>
+      <c r="A76" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>270</v>
+      <c r="A77" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B77" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>368</v>
+        <v>764</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>736</v>
+      </c>
+      <c r="B79" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>303</v>
+        <v>736</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>313</v>
+        <v>768</v>
+      </c>
+      <c r="B81" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>694</v>
+        <v>773</v>
+      </c>
+      <c r="B82" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>525</v>
+        <v>770</v>
+      </c>
+      <c r="B83" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>421</v>
+        <v>776</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>247</v>
+        <v>779</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>43</v>
+        <v>822</v>
+      </c>
+      <c r="B86" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>582</v>
+        <v>782</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>782</v>
+      </c>
+      <c r="B88" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>568</v>
+      <c r="A89" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>288</v>
+      <c r="A90" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B90" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>547</v>
+        <v>794</v>
+      </c>
+      <c r="B91" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>419</v>
+        <v>796</v>
+      </c>
+      <c r="B92" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>307</v>
+        <v>824</v>
+      </c>
+      <c r="B93" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>521</v>
+        <v>799</v>
+      </c>
+      <c r="B94" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>626</v>
+        <v>826</v>
+      </c>
+      <c r="B95" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>275</v>
+        <v>826</v>
+      </c>
+      <c r="B96" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>280</v>
+        <v>828</v>
+      </c>
+      <c r="B97" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>576</v>
+        <v>830</v>
+      </c>
+      <c r="B98" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>612</v>
+        <v>833</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>835</v>
+      </c>
+      <c r="B100" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>340</v>
+        <v>802</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>192</v>
+      <c r="A102" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>8</v>
+      <c r="A103" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B103" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>285</v>
+        <v>805</v>
+      </c>
+      <c r="B104" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>330</v>
+        <v>808</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>256</v>
+        <v>811</v>
+      </c>
+      <c r="B106" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>469</v>
+        <v>813</v>
+      </c>
+      <c r="B107" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>417</v>
+        <v>816</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>34</v>
+        <v>816</v>
+      </c>
+      <c r="B109" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>706</v>
+        <v>749</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>29</v>
+        <v>749</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>752</v>
+      </c>
+      <c r="B112" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>589</v>
+        <v>755</v>
+      </c>
+      <c r="B113" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>661</v>
+        <v>739</v>
+      </c>
+      <c r="B114" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>475</v>
+        <v>740</v>
+      </c>
+      <c r="B115" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>619</v>
+        <v>762</v>
+      </c>
+      <c r="B116" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>205</v>
+        <v>741</v>
+      </c>
+      <c r="B117" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>500</v>
+        <v>789</v>
+      </c>
+      <c r="B118" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>513</v>
+      <c r="A119" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>515</v>
+      <c r="A120" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>138</v>
+        <v>765</v>
+      </c>
+      <c r="B121" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>333</v>
+        <v>743</v>
+      </c>
+      <c r="B122" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>398</v>
+        <v>771</v>
+      </c>
+      <c r="B123" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>354</v>
+        <v>777</v>
+      </c>
+      <c r="B124" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>344</v>
+        <v>780</v>
+      </c>
+      <c r="B125" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>598</v>
+        <v>783</v>
+      </c>
+      <c r="B126" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>335</v>
+      <c r="A127" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>705</v>
+      <c r="A128" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B128" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>745</v>
+      </c>
+      <c r="B129" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>797</v>
+      </c>
+      <c r="B130" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>798</v>
+      </c>
+      <c r="B131" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>709</v>
+        <v>800</v>
+      </c>
+      <c r="B132" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>648</v>
+        <v>829</v>
+      </c>
+      <c r="B133" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>251</v>
+        <v>831</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>803</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>803</v>
+      </c>
+      <c r="B136" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>511</v>
+        <v>806</v>
+      </c>
+      <c r="B137" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>389</v>
+        <v>809</v>
+      </c>
+      <c r="B138" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>348</v>
+        <v>812</v>
+      </c>
+      <c r="B139" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>534</v>
+        <v>814</v>
+      </c>
+      <c r="B140" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>536</v>
+        <v>746</v>
+      </c>
+      <c r="B141" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>572</v>
+        <v>817</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>190</v>
+        <v>817</v>
+      </c>
+      <c r="B143" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>548</v>
-      </c>
+      <c r="B144" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="Achernar" display="../../../wiki/Achernar"/>
-    <hyperlink ref="A103" r:id="rId2" tooltip="Beta Scorpii" display="../../../wiki/Beta_Scorpii"/>
-    <hyperlink ref="B27" r:id="rId3" tooltip="Alpha Crucis" display="../../../wiki/Alpha_Crucis"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="Alpha Cancri" display="../../../wiki/Alpha_Cancri"/>
-    <hyperlink ref="B111" r:id="rId5" tooltip="Gamma Andromedae" display="../../../wiki/Gamma_Andromedae"/>
-    <hyperlink ref="B109" r:id="rId6" tooltip="Beta Virginis" display="../../../wiki/Beta_Virginis"/>
-    <hyperlink ref="B86" r:id="rId7" tooltip="Albireo" display="../../../wiki/Albireo"/>
-    <hyperlink ref="B25" r:id="rId8" tooltip="Alpha Corvi" display="../../../wiki/Alpha_Corvi"/>
-    <hyperlink ref="B55" r:id="rId9" tooltip="Aldebaran" display="../../../wiki/Aldebaran"/>
-    <hyperlink ref="B15" r:id="rId10" tooltip="Alpha Cephei" display="../../../wiki/Alpha_Cephei"/>
-    <hyperlink ref="B130" r:id="rId11" tooltip="Gamma Gruis" display="../../../wiki/Gamma_Gruis"/>
-    <hyperlink ref="B22" r:id="rId12" tooltip="Alpha Coronae Australis" display="../../../wiki/Alpha_Coronae_Australis"/>
-    <hyperlink ref="B79" r:id="rId13" tooltip="Beta Cephei" display="../../../wiki/Beta_Cephei"/>
-    <hyperlink ref="B11" r:id="rId14" tooltip="Alpha Capricorni" display="../../../wiki/Alpha_Capricorni"/>
-    <hyperlink ref="B45" r:id="rId15" tooltip="Alpha Persei" display="../../../wiki/Alpha_Persei"/>
-    <hyperlink ref="B135" r:id="rId16" tooltip="Gamma Pegasi" display="../../../wiki/Gamma_Pegasi"/>
-    <hyperlink ref="B131" r:id="rId17" tooltip="Gamma Leonis" display="../../../wiki/Gamma_Leonis"/>
-    <hyperlink ref="B100" r:id="rId18" tooltip="Algol" display="../../../wiki/Algol"/>
-    <hyperlink ref="B129" r:id="rId19" tooltip="Gamma Geminorum" display="../../../wiki/Gamma_Geminorum"/>
-    <hyperlink ref="B26" r:id="rId20" tooltip="Alpha Crateris" display="../../../wiki/Alpha_Crateris"/>
-    <hyperlink ref="B112" r:id="rId21" tooltip="Gamma Andromedae" display="../../../wiki/Gamma_Andromedae"/>
-    <hyperlink ref="B34" r:id="rId22" tooltip="Alpha Gruis" display="../../../wiki/Alpha_Gruis"/>
-    <hyperlink ref="B136" r:id="rId23" tooltip="Gamma Sagittarii" display="../../../wiki/Gamma_Sagittarii"/>
-    <hyperlink ref="B36" r:id="rId24" tooltip="Alphard" display="../../../wiki/Alphard"/>
-    <hyperlink ref="B23" r:id="rId25" tooltip="Alpha Coronae Borealis" display="../../../wiki/Alpha_Coronae_Borealis"/>
-    <hyperlink ref="B2" r:id="rId26" tooltip="Alpha Andromedae" display="../../../wiki/Alpha_Andromedae"/>
-    <hyperlink ref="B121" r:id="rId27" tooltip="Gamma Cephei" display="../../../wiki/Gamma_Cephei"/>
-    <hyperlink ref="B51" r:id="rId28" tooltip="Alpha Sagittarii" display="../../../wiki/Alpha_Sagittarii"/>
-    <hyperlink ref="B49" r:id="rId29" tooltip="Alpha Piscium" display="../../../wiki/Alpha_Piscium"/>
-    <hyperlink ref="B65" r:id="rId30" tooltip="Beta Aquilae" display="../../../wiki/Beta_Aquilae"/>
-    <hyperlink ref="B4" r:id="rId31" tooltip="Altair" display="../../../wiki/Altair"/>
-    <hyperlink ref="B69" r:id="rId32" tooltip="Beta Cancri" display="../../../wiki/Beta_Cancri"/>
-    <hyperlink ref="B88" r:id="rId33" tooltip="Beta Draconis" display="../../../wiki/Beta_Draconis"/>
-    <hyperlink ref="B47" r:id="rId34" tooltip="Alpha Phoenicis" display="../../../wiki/Alpha_Phoenicis"/>
-    <hyperlink ref="A53" r:id="rId35" tooltip="Α Sco" display="../../../wiki/%25CE%2591_Sco"/>
-    <hyperlink ref="B53" r:id="rId36" tooltip="Antares" display="../../../wiki/Antares"/>
-    <hyperlink ref="A7" r:id="rId37" tooltip="Α Boo" display="../../../wiki/%25CE%2591_Boo"/>
-    <hyperlink ref="B7" r:id="rId38" tooltip="Arcturus" display="../../../wiki/Arcturus"/>
-    <hyperlink ref="B143" r:id="rId39" tooltip="Gamma Virginis" display="../../../wiki/Gamma_Virginis"/>
-    <hyperlink ref="B102" r:id="rId40" tooltip="Beta Sagittarii" display="../../../wiki/Beta_Sagittarii"/>
-    <hyperlink ref="B39" r:id="rId41" tooltip="Alpha Leporis" display="../../../wiki/Alpha_Leporis"/>
-    <hyperlink ref="B117" r:id="rId42" tooltip="Gamma Cancri" display="../../../wiki/Gamma_Cancri"/>
-    <hyperlink ref="B73" r:id="rId43" tooltip="Beta Canum Venaticorum" display="../../../wiki/Beta_Canum_Venaticorum"/>
-    <hyperlink ref="B58" r:id="rId44" tooltip="Alpha Trianguli Australis" display="../../../wiki/Alpha_Trianguli_Australis"/>
-    <hyperlink ref="B85" r:id="rId45" tooltip="Becrux" display="../../../wiki/Becrux"/>
-    <hyperlink ref="B134" r:id="rId46" tooltip="Gamma Orionis" display="../../../wiki/Gamma_Orionis"/>
-    <hyperlink ref="B42" r:id="rId47" tooltip="Betelgeuse" display="../../../wiki/Betelgeuse"/>
-    <hyperlink ref="B106" r:id="rId48" tooltip="Beta Trianguli Australis" display="../../../wiki/Beta_Trianguli_Australis"/>
-    <hyperlink ref="B12" r:id="rId49" tooltip="Canopus" display="../../../wiki/Canopus"/>
-    <hyperlink ref="B6" r:id="rId50" tooltip="Capella (star)" display="../../../wiki/Capella_(star)"/>
-    <hyperlink ref="A77" r:id="rId51" tooltip="Β Cas" display="../../../wiki/%25CE%2592_Cas"/>
-    <hyperlink ref="B32" r:id="rId52" tooltip="Castor (star)" display="../../../wiki/Castor_(star)"/>
-    <hyperlink ref="B96" r:id="rId53" tooltip="Beta Ophiuchi" display="../../../wiki/Beta_Ophiuchi"/>
-    <hyperlink ref="B9" r:id="rId54" tooltip="Cor Caroli" display="../../../wiki/Cor_Caroli"/>
-    <hyperlink ref="B74" r:id="rId55" tooltip="Beta Canum Venaticorum" display="../../../wiki/Beta_Canum_Venaticorum"/>
-    <hyperlink ref="B97" r:id="rId56" tooltip="Beta Ophiuchi" display="../../../wiki/Beta_Ophiuchi"/>
-    <hyperlink ref="B104" r:id="rId57" tooltip="Beta Serpentis" display="../../../wiki/Beta_Serpentis"/>
-    <hyperlink ref="B10" r:id="rId58" tooltip="Cor Caroli" display="../../../wiki/Cor_Caroli"/>
-    <hyperlink ref="A90" r:id="rId59" tooltip="Β Eri" display="../../../wiki/%25CE%2592_Eri"/>
-    <hyperlink ref="B75" r:id="rId60" tooltip="Beta Capricorni" display="../../../wiki/Beta_Capricorni"/>
-    <hyperlink ref="B28" r:id="rId61" tooltip="Deneb" display="../../../wiki/Deneb"/>
-    <hyperlink ref="B80" r:id="rId62" tooltip="Beta Ceti" display="../../../wiki/Beta_Ceti"/>
-    <hyperlink ref="B93" r:id="rId63" tooltip="Denebola" display="../../../wiki/Denebola"/>
-    <hyperlink ref="B21" r:id="rId64" tooltip="Alpha Comae Berenices" display="../../../wiki/Alpha_Comae_Berenices"/>
-    <hyperlink ref="B81" r:id="rId65" tooltip="Beta Ceti" display="../../../wiki/Beta_Ceti"/>
-    <hyperlink ref="B60" r:id="rId66" tooltip="Alpha Ursae Majoris" display="../../../wiki/Alpha_Ursae_Majoris"/>
-    <hyperlink ref="B56" r:id="rId67" tooltip="Alpha Trianguli" display="../../../wiki/Alpha_Trianguli"/>
-    <hyperlink ref="B105" r:id="rId68" tooltip="Beta Tauri" display="../../../wiki/Beta_Tauri"/>
-    <hyperlink ref="B122" r:id="rId69" tooltip="Gamma Cephei" display="../../../wiki/Gamma_Cephei"/>
-    <hyperlink ref="B127" r:id="rId70" tooltip="Gamma Draconis" display="../../../wiki/Gamma_Draconis"/>
-    <hyperlink ref="B48" r:id="rId71" tooltip="Fomalhaut" display="../../../wiki/Fomalhaut"/>
-    <hyperlink ref="B101" r:id="rId72" tooltip="Beta Piscium" display="../../../wiki/Beta_Piscium"/>
-    <hyperlink ref="B125" r:id="rId73" tooltip="Gacrux" display="../../../wiki/Gacrux"/>
-    <hyperlink ref="B139" r:id="rId74" tooltip="Gamma Trianguli Australis" display="../../../wiki/Gamma_Trianguli_Australis"/>
-    <hyperlink ref="B24" r:id="rId75" tooltip="Alpha Coronae Borealis" display="../../../wiki/Alpha_Coronae_Borealis"/>
-    <hyperlink ref="B124" r:id="rId76" tooltip="Gamma Corvi" display="../../../wiki/Gamma_Corvi"/>
-    <hyperlink ref="B72" r:id="rId77" tooltip="Beta Canis Minoris" display="../../../wiki/Beta_Canis_Minoris"/>
-    <hyperlink ref="B78" r:id="rId78" tooltip="Beta Centauri" display="../../../wiki/Beta_Centauri"/>
-    <hyperlink ref="A5" r:id="rId79" tooltip="Α Ari" display="../../../wiki/%25CE%2591_Ari"/>
-    <hyperlink ref="A37" r:id="rId80" tooltip="Alpha Hydri" display="../../../wiki/Alpha_Hydri"/>
-    <hyperlink ref="B37" r:id="rId81" tooltip="Alpha Hydri" display="../../../wiki/Alpha_Hydri"/>
-    <hyperlink ref="B138" r:id="rId82" tooltip="Gamma Tauri" display="../../../wiki/Gamma_Tauri"/>
-    <hyperlink ref="B123" r:id="rId83" tooltip="Gamma Ceti" display="../../../wiki/Gamma_Ceti"/>
-    <hyperlink ref="B31" r:id="rId84" tooltip="Alpha Equulei" display="../../../wiki/Alpha_Equulei"/>
-    <hyperlink ref="B108" r:id="rId85" tooltip="Beta Ursae Minoris" display="../../../wiki/Beta_Ursae_Minoris"/>
-    <hyperlink ref="B92" r:id="rId86" tooltip="Beta Herculis" display="../../../wiki/Beta_Herculis"/>
-    <hyperlink ref="B84" r:id="rId87" tooltip="Beta Corvi" display="../../../wiki/Beta_Corvi"/>
-    <hyperlink ref="B62" r:id="rId88" tooltip="Alpha Vulpeculae" display="../../../wiki/Alpha_Vulpeculae"/>
-    <hyperlink ref="B44" r:id="rId89" tooltip="Markab (star)" display="../../../wiki/Markab_(star)"/>
-    <hyperlink ref="B16" r:id="rId90" tooltip="Alpha Ceti" display="../../../wiki/Alpha_Ceti"/>
-    <hyperlink ref="B67" r:id="rId91" tooltip="Beta Aurigae" display="../../../wiki/Beta_Aurigae"/>
-    <hyperlink ref="B17" r:id="rId92" tooltip="Alpha Ceti" display="../../../wiki/Alpha_Ceti"/>
-    <hyperlink ref="B107" r:id="rId93" tooltip="Beta Ursae Majoris" display="../../../wiki/Beta_Ursae_Majoris"/>
-    <hyperlink ref="B115" r:id="rId94" tooltip="Gamma Arietis" display="../../../wiki/Gamma_Arietis"/>
-    <hyperlink ref="B76" r:id="rId95" tooltip="Beta Carinae" display="../../../wiki/Beta_Carinae"/>
-    <hyperlink ref="B63" r:id="rId96" tooltip="Beta Andromedae" display="../../../wiki/Beta_Andromedae"/>
-    <hyperlink ref="B46" r:id="rId97" tooltip="Alpha Persei" display="../../../wiki/Alpha_Persei"/>
-    <hyperlink ref="B70" r:id="rId98" tooltip="Beta Canis Majoris" display="../../../wiki/Beta_Canis_Majoris"/>
-    <hyperlink ref="B57" r:id="rId99" tooltip="Alpha Trianguli" display="../../../wiki/Alpha_Trianguli"/>
-    <hyperlink ref="B118" r:id="rId100" tooltip="Muliphein" display="../../../wiki/Muliphein"/>
-    <hyperlink ref="B71" r:id="rId101" tooltip="Beta Canis Majoris" display="../../../wiki/Beta_Canis_Majoris"/>
-    <hyperlink ref="B137" r:id="rId102" tooltip="Gamma Sagittarii" display="../../../wiki/Gamma_Sagittarii"/>
-    <hyperlink ref="B119" r:id="rId103" tooltip="Gamma Capricorni" display="../../../wiki/Gamma_Capricorni"/>
-    <hyperlink ref="A120" r:id="rId104" tooltip="Γ Cas" display="../../../wiki/%25CE%2593_Cas"/>
-    <hyperlink ref="B68" r:id="rId105" tooltip="Beta Boötis" display="../../../wiki/Beta_Bo%25C3%25B6tis"/>
-    <hyperlink ref="B94" r:id="rId106" tooltip="Beta Leporis" display="../../../wiki/Beta_Leporis"/>
-    <hyperlink ref="B83" r:id="rId107" tooltip="Beta Coronae Borealis" display="../../../wiki/Beta_Coronae_Borealis"/>
-    <hyperlink ref="B20" r:id="rId108" tooltip="Alpha Columbae" display="../../../wiki/Alpha_Columbae"/>
-    <hyperlink ref="B140" r:id="rId109" tooltip="Gamma Ursae Majoris" display="../../../wiki/Gamma_Ursae_Majoris"/>
-    <hyperlink ref="B141" r:id="rId110" tooltip="Gamma Ursae Minoris" display="../../../wiki/Gamma_Ursae_Minoris"/>
-    <hyperlink ref="A59" r:id="rId111" tooltip="Α UMi" display="../../../wiki/%25CE%2591_UMi"/>
-    <hyperlink ref="B59" r:id="rId112" tooltip="Polaris" display="../../../wiki/Polaris"/>
-    <hyperlink ref="B91" r:id="rId113" tooltip="Pollux (star)" display="../../../wiki/Pollux_(star)"/>
-    <hyperlink ref="B144" r:id="rId114" tooltip="Gamma Virginis" display="../../../wiki/Gamma_Virginis"/>
-    <hyperlink ref="A19" r:id="rId115" tooltip="Α CMi" display="../../../wiki/%25CE%2591_CMi"/>
-    <hyperlink ref="B19" r:id="rId116" tooltip="Procyon" display="../../../wiki/Procyon"/>
-    <hyperlink ref="B35" r:id="rId117" tooltip="Alpha Herculis" display="../../../wiki/Alpha_Herculis"/>
-    <hyperlink ref="B41" r:id="rId118" tooltip="Alpha Ophiuchi" display="../../../wiki/Alpha_Ophiuchi"/>
-    <hyperlink ref="B89" r:id="rId119" tooltip="Beta Draconis" display="../../../wiki/Beta_Draconis"/>
-    <hyperlink ref="B33" r:id="rId120" tooltip="Alpha Geminorum" display="../../../wiki/Alpha_Geminorum"/>
-    <hyperlink ref="B142" r:id="rId121" tooltip="Gamma Velorum" display="../../../wiki/Gamma_Velorum"/>
-    <hyperlink ref="B38" r:id="rId122" tooltip="Regulus" display="../../../wiki/Regulus"/>
-    <hyperlink ref="B98" r:id="rId123" tooltip="Rigel" display="../../../wiki/Rigel"/>
-    <hyperlink ref="A14" r:id="rId124" tooltip="Α Cen" display="../../../wiki/%25CE%2591_Cen"/>
-    <hyperlink ref="B87" r:id="rId125" tooltip="Beta Delphini" display="../../../wiki/Beta_Delphini"/>
-    <hyperlink ref="B52" r:id="rId126" tooltip="Alpha Sagittarii" display="../../../wiki/Alpha_Sagittarii"/>
-    <hyperlink ref="B113" r:id="rId127" tooltip="Gamma Aquarii" display="../../../wiki/Gamma_Aquarii"/>
-    <hyperlink ref="B3" r:id="rId128" tooltip="Alpha Aquarii" display="../../../wiki/Alpha_Aquarii"/>
-    <hyperlink ref="B64" r:id="rId129" tooltip="Beta Aquarii" display="../../../wiki/Beta_Aquarii"/>
-    <hyperlink ref="B126" r:id="rId130" tooltip="Gamma Cygni" display="../../../wiki/Gamma_Cygni"/>
-    <hyperlink ref="B99" r:id="rId131" tooltip="Beta Pegasi" display="../../../wiki/Beta_Pegasi"/>
-    <hyperlink ref="A13" r:id="rId132" tooltip="Α Cas" display="../../../wiki/%25CE%2591_Cas"/>
-    <hyperlink ref="B116" r:id="rId133" tooltip="Gamma Bootis" display="../../../wiki/Gamma_Bootis"/>
-    <hyperlink ref="B50" r:id="rId134" tooltip="Alpha Sagittae" display="../../../wiki/Alpha_Sagittae"/>
-    <hyperlink ref="B95" r:id="rId135" tooltip="Beta Lyrae" display="../../../wiki/Beta_Lyrae"/>
-    <hyperlink ref="B66" r:id="rId136" tooltip="Beta Arietis" display="../../../wiki/Beta_Arietis"/>
-    <hyperlink ref="A18" r:id="rId137" tooltip="Α CMa" display="../../../wiki/%25CE%2591_CMa"/>
-    <hyperlink ref="B18" r:id="rId138" tooltip="Sirius" display="../../../wiki/Sirius"/>
-    <hyperlink ref="B61" r:id="rId139" tooltip="Spica" display="../../../wiki/Spica"/>
-    <hyperlink ref="B29" r:id="rId140" tooltip="Alpha Delphini" display="../../../wiki/Alpha_Delphini"/>
-    <hyperlink ref="B133" r:id="rId141" tooltip="Gamma Lyrae" display="../../../wiki/Gamma_Lyrae"/>
-    <hyperlink ref="B114" r:id="rId142" tooltip="Gamma Aquilae" display="../../../wiki/Gamma_Aquilae"/>
-    <hyperlink ref="B30" r:id="rId143" tooltip="Thuban" display="../../../wiki/Thuban"/>
-    <hyperlink ref="B54" r:id="rId144" tooltip="Alpha Serpentis" display="../../../wiki/Alpha_Serpentis"/>
-    <hyperlink ref="A40" r:id="rId145" tooltip="Α Lyr" display="../../../wiki/%25CE%2591_Lyr"/>
-    <hyperlink ref="B40" r:id="rId146" tooltip="Vega" display="../../../wiki/Vega"/>
-    <hyperlink ref="B82" r:id="rId147" tooltip="Beta Columbae" display="../../../wiki/Beta_Columbae"/>
-    <hyperlink ref="A128" r:id="rId148" tooltip="Γ Eri" display="../../../wiki/%25CE%2593_Eri"/>
-    <hyperlink ref="B110" r:id="rId149" tooltip="Beta Virginis" display="../../../wiki/Beta_Virginis"/>
-    <hyperlink ref="B132" r:id="rId150" tooltip="Gamma Librae" display="../../../wiki/Gamma_Librae"/>
+    <hyperlink ref="A102" r:id="rId1" tooltip="Beta Scorpii" display="../../../wiki/Beta_Scorpii"/>
+    <hyperlink ref="A52" r:id="rId2" tooltip="Α Sco" display="../../../wiki/%25CE%2591_Sco"/>
+    <hyperlink ref="A7" r:id="rId3" tooltip="Α Boo" display="../../../wiki/%25CE%2591_Boo"/>
+    <hyperlink ref="A76" r:id="rId4" tooltip="Β Cas" display="../../../wiki/%25CE%2592_Cas"/>
+    <hyperlink ref="A89" r:id="rId5" tooltip="Β Eri" display="../../../wiki/%25CE%2592_Eri"/>
+    <hyperlink ref="A5" r:id="rId6" tooltip="Α Ari" display="../../../wiki/%25CE%2591_Ari"/>
+    <hyperlink ref="A119" r:id="rId7" tooltip="Γ Cas" display="../../../wiki/%25CE%2593_Cas"/>
+    <hyperlink ref="A58" r:id="rId8" tooltip="Α UMi" display="../../../wiki/%25CE%2591_UMi"/>
+    <hyperlink ref="A19" r:id="rId9" tooltip="Α CMi" display="../../../wiki/%25CE%2591_CMi"/>
+    <hyperlink ref="A14" r:id="rId10" tooltip="Α Cen" display="../../../wiki/%25CE%2591_Cen"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="Α Cas" display="../../../wiki/%25CE%2591_Cas"/>
+    <hyperlink ref="A18" r:id="rId12" tooltip="Α CMa" display="../../../wiki/%25CE%2591_CMa"/>
+    <hyperlink ref="A39" r:id="rId13" tooltip="Α Lyr" display="../../../wiki/%25CE%2591_Lyr"/>
+    <hyperlink ref="A127" r:id="rId14" tooltip="Γ Eri" display="../../../wiki/%25CE%2593_Eri"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D352"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D352"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1">
+        <v>87937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D2">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3">
+        <v>24186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4">
+        <v>70890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5">
+        <v>358</v>
+      </c>
+      <c r="D5">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6">
+        <v>432</v>
+      </c>
+      <c r="D6">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B7" t="s">
+        <v>855</v>
+      </c>
+      <c r="C7">
+        <v>886</v>
+      </c>
+      <c r="D7">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C8">
+        <v>1522</v>
+      </c>
+      <c r="D8">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>858</v>
+      </c>
+      <c r="B9" t="s">
+        <v>859</v>
+      </c>
+      <c r="C9">
+        <v>2261</v>
+      </c>
+      <c r="D9">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C10">
+        <v>3712</v>
+      </c>
+      <c r="D10">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>861</v>
+      </c>
+      <c r="B11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11">
+        <v>4128</v>
+      </c>
+      <c r="D11">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>863</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4614</v>
+      </c>
+      <c r="D12">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>864</v>
+      </c>
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13">
+        <v>5394</v>
+      </c>
+      <c r="D13">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B14" t="s">
+        <v>866</v>
+      </c>
+      <c r="C14">
+        <v>6582</v>
+      </c>
+      <c r="D14">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C15">
+        <v>6805</v>
+      </c>
+      <c r="D15">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B16" t="s">
+        <v>870</v>
+      </c>
+      <c r="C16">
+        <v>6860</v>
+      </c>
+      <c r="D16">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17">
+        <v>6961</v>
+      </c>
+      <c r="D17">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18">
+        <v>8207</v>
+      </c>
+      <c r="D18">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>874</v>
+      </c>
+      <c r="B19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19">
+        <v>8538</v>
+      </c>
+      <c r="D19">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C20">
+        <v>8890</v>
+      </c>
+      <c r="D20">
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>876</v>
+      </c>
+      <c r="B21" t="s">
+        <v>877</v>
+      </c>
+      <c r="C21">
+        <v>9270</v>
+      </c>
+      <c r="D21">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>878</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10144</v>
+      </c>
+      <c r="D22">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>879</v>
+      </c>
+      <c r="B23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23">
+        <v>10761</v>
+      </c>
+      <c r="D23">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>881</v>
+      </c>
+      <c r="B24" t="s">
+        <v>882</v>
+      </c>
+      <c r="C24">
+        <v>11353</v>
+      </c>
+      <c r="D24">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>883</v>
+      </c>
+      <c r="B25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C25">
+        <v>11415</v>
+      </c>
+      <c r="D25">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>884</v>
+      </c>
+      <c r="B26" t="s">
+        <v>885</v>
+      </c>
+      <c r="C26">
+        <v>11443</v>
+      </c>
+      <c r="D26">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>886</v>
+      </c>
+      <c r="B27" t="s">
+        <v>887</v>
+      </c>
+      <c r="C27">
+        <v>11502</v>
+      </c>
+      <c r="D27">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>888</v>
+      </c>
+      <c r="B28" t="s">
+        <v>889</v>
+      </c>
+      <c r="C28">
+        <v>11636</v>
+      </c>
+      <c r="D28">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>890</v>
+      </c>
+      <c r="B29" t="s">
+        <v>891</v>
+      </c>
+      <c r="C29">
+        <v>12311</v>
+      </c>
+      <c r="D29">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>892</v>
+      </c>
+      <c r="B30" t="s">
+        <v>893</v>
+      </c>
+      <c r="C30">
+        <v>12447</v>
+      </c>
+      <c r="D30">
+        <v>9487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>894</v>
+      </c>
+      <c r="B31" t="s">
+        <v>895</v>
+      </c>
+      <c r="C31">
+        <v>12533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>715</v>
+      </c>
+      <c r="B32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32">
+        <v>12929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>896</v>
+      </c>
+      <c r="B33" t="s">
+        <v>897</v>
+      </c>
+      <c r="C33">
+        <v>14386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>898</v>
+      </c>
+      <c r="B34" t="s">
+        <v>899</v>
+      </c>
+      <c r="C34">
+        <v>16970</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>900</v>
+      </c>
+      <c r="B35" t="s">
+        <v>901</v>
+      </c>
+      <c r="C35">
+        <v>17506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>902</v>
+      </c>
+      <c r="B36" t="s">
+        <v>903</v>
+      </c>
+      <c r="C36">
+        <v>17824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>904</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37">
+        <v>18322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>905</v>
+      </c>
+      <c r="B38" t="s">
+        <v>906</v>
+      </c>
+      <c r="C38">
+        <v>18411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>907</v>
+      </c>
+      <c r="B39" t="s">
+        <v>908</v>
+      </c>
+      <c r="C39">
+        <v>18622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>909</v>
+      </c>
+      <c r="B40" t="s">
+        <v>910</v>
+      </c>
+      <c r="C40">
+        <v>18884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>911</v>
+      </c>
+      <c r="B41" t="s">
+        <v>912</v>
+      </c>
+      <c r="C41">
+        <v>19058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>913</v>
+      </c>
+      <c r="B42" t="s">
+        <v>914</v>
+      </c>
+      <c r="C42">
+        <v>19356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>915</v>
+      </c>
+      <c r="B43" t="s">
+        <v>916</v>
+      </c>
+      <c r="C43">
+        <v>19476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>917</v>
+      </c>
+      <c r="B44" t="s">
+        <v>918</v>
+      </c>
+      <c r="C44">
+        <v>19656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>919</v>
+      </c>
+      <c r="B45" t="s">
+        <v>920</v>
+      </c>
+      <c r="C45">
+        <v>19787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>921</v>
+      </c>
+      <c r="B46" t="s">
+        <v>922</v>
+      </c>
+      <c r="C46">
+        <v>20010</v>
+      </c>
+      <c r="D46">
+        <v>14879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>923</v>
+      </c>
+      <c r="B47" t="s">
+        <v>924</v>
+      </c>
+      <c r="C47">
+        <v>20320</v>
+      </c>
+      <c r="D47">
+        <v>15197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>925</v>
+      </c>
+      <c r="B48" t="s">
+        <v>926</v>
+      </c>
+      <c r="C48">
+        <v>20902</v>
+      </c>
+      <c r="D48">
+        <v>15863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>928</v>
+      </c>
+      <c r="C49">
+        <v>22049</v>
+      </c>
+      <c r="D49">
+        <v>16537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>929</v>
+      </c>
+      <c r="B50" t="s">
+        <v>930</v>
+      </c>
+      <c r="C50">
+        <v>23180</v>
+      </c>
+      <c r="D50">
+        <v>17448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>931</v>
+      </c>
+      <c r="B51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C51">
+        <v>23249</v>
+      </c>
+      <c r="D51">
+        <v>17378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>932</v>
+      </c>
+      <c r="B52" t="s">
+        <v>933</v>
+      </c>
+      <c r="C52">
+        <v>23288</v>
+      </c>
+      <c r="D52">
+        <v>17489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>934</v>
+      </c>
+      <c r="B53" t="s">
+        <v>935</v>
+      </c>
+      <c r="C53">
+        <v>23302</v>
+      </c>
+      <c r="D53">
+        <v>17499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>936</v>
+      </c>
+      <c r="B54" t="s">
+        <v>937</v>
+      </c>
+      <c r="C54">
+        <v>23338</v>
+      </c>
+      <c r="D54">
+        <v>17531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>938</v>
+      </c>
+      <c r="B55" t="s">
+        <v>939</v>
+      </c>
+      <c r="C55">
+        <v>23408</v>
+      </c>
+      <c r="D55">
+        <v>17573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>940</v>
+      </c>
+      <c r="B56" t="s">
+        <v>941</v>
+      </c>
+      <c r="C56">
+        <v>23432</v>
+      </c>
+      <c r="D56">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>942</v>
+      </c>
+      <c r="B57" t="s">
+        <v>943</v>
+      </c>
+      <c r="C57">
+        <v>23441</v>
+      </c>
+      <c r="D57">
+        <v>17588</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>944</v>
+      </c>
+      <c r="B58" t="s">
+        <v>945</v>
+      </c>
+      <c r="C58">
+        <v>23480</v>
+      </c>
+      <c r="D58">
+        <v>17608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>946</v>
+      </c>
+      <c r="B59" t="s">
+        <v>947</v>
+      </c>
+      <c r="C59">
+        <v>23630</v>
+      </c>
+      <c r="D59">
+        <v>17702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>948</v>
+      </c>
+      <c r="B60" t="s">
+        <v>949</v>
+      </c>
+      <c r="C60">
+        <v>23850</v>
+      </c>
+      <c r="D60">
+        <v>17847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>950</v>
+      </c>
+      <c r="B61" t="s">
+        <v>951</v>
+      </c>
+      <c r="C61">
+        <v>23862</v>
+      </c>
+      <c r="D61">
+        <v>17851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>952</v>
+      </c>
+      <c r="B62" t="s">
+        <v>953</v>
+      </c>
+      <c r="C62">
+        <v>24398</v>
+      </c>
+      <c r="D62">
+        <v>18246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>954</v>
+      </c>
+      <c r="B63" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63">
+        <v>25025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>955</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64">
+        <v>26574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>956</v>
+      </c>
+      <c r="B65" t="s">
+        <v>957</v>
+      </c>
+      <c r="C65">
+        <v>26965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>958</v>
+      </c>
+      <c r="B66" t="s">
+        <v>959</v>
+      </c>
+      <c r="C66">
+        <v>27371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>960</v>
+      </c>
+      <c r="B67" t="s">
+        <v>961</v>
+      </c>
+      <c r="C67">
+        <v>27697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>962</v>
+      </c>
+      <c r="B68" t="s">
+        <v>963</v>
+      </c>
+      <c r="C68">
+        <v>28305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>964</v>
+      </c>
+      <c r="B69" t="s">
+        <v>965</v>
+      </c>
+      <c r="C69">
+        <v>29139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>966</v>
+      </c>
+      <c r="B70" t="s">
+        <v>967</v>
+      </c>
+      <c r="C70">
+        <v>29291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>968</v>
+      </c>
+      <c r="B71" t="s">
+        <v>609</v>
+      </c>
+      <c r="C71">
+        <v>29503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>969</v>
+      </c>
+      <c r="B72" t="s">
+        <v>970</v>
+      </c>
+      <c r="C72">
+        <v>30652</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>971</v>
+      </c>
+      <c r="B73" t="s">
+        <v>972</v>
+      </c>
+      <c r="C73">
+        <v>31398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>973</v>
+      </c>
+      <c r="B74" t="s">
+        <v>974</v>
+      </c>
+      <c r="C74">
+        <v>31964</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>975</v>
+      </c>
+      <c r="B75" t="s">
+        <v>976</v>
+      </c>
+      <c r="C75">
+        <v>32068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>977</v>
+      </c>
+      <c r="B76" t="s">
+        <v>978</v>
+      </c>
+      <c r="C76">
+        <v>32630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>979</v>
+      </c>
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77">
+        <v>33111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>980</v>
+      </c>
+      <c r="B78" t="s">
+        <v>981</v>
+      </c>
+      <c r="C78">
+        <v>34029</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>982</v>
+      </c>
+      <c r="B79" t="s">
+        <v>983</v>
+      </c>
+      <c r="C79">
+        <v>34085</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>984</v>
+      </c>
+      <c r="B80" t="s">
+        <v>985</v>
+      </c>
+      <c r="C80">
+        <v>35468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>986</v>
+      </c>
+      <c r="B81" t="s">
+        <v>987</v>
+      </c>
+      <c r="C81">
+        <v>35497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>988</v>
+      </c>
+      <c r="B82" t="s">
+        <v>989</v>
+      </c>
+      <c r="C82">
+        <v>36079</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>990</v>
+      </c>
+      <c r="B83" t="s">
+        <v>991</v>
+      </c>
+      <c r="C83">
+        <v>36486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>992</v>
+      </c>
+      <c r="B84" t="s">
+        <v>993</v>
+      </c>
+      <c r="C84">
+        <v>36512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>994</v>
+      </c>
+      <c r="B85" t="s">
+        <v>995</v>
+      </c>
+      <c r="C85">
+        <v>36673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>996</v>
+      </c>
+      <c r="B86" t="s">
+        <v>997</v>
+      </c>
+      <c r="C86">
+        <v>36861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>998</v>
+      </c>
+      <c r="B87" t="s">
+        <v>999</v>
+      </c>
+      <c r="C87">
+        <v>37043</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C88">
+        <v>37128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B89" t="s">
+        <v>677</v>
+      </c>
+      <c r="C89">
+        <v>37202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C90">
+        <v>37742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C91">
+        <v>37795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C92">
+        <v>38771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C93">
+        <v>39425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C94">
+        <v>39764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C95">
+        <v>39801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C96">
+        <v>40035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C97">
+        <v>40183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C98">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C99">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C100">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C101">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C103">
+        <v>47105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C104">
+        <v>47129</v>
+      </c>
+      <c r="D104">
+        <v>31646</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C105">
+        <v>48329</v>
+      </c>
+      <c r="D105">
+        <v>32246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C106">
+        <v>48737</v>
+      </c>
+      <c r="D106">
+        <v>32362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B107" t="s">
+        <v>631</v>
+      </c>
+      <c r="C107">
+        <v>48915</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C108">
+        <v>52089</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C109">
+        <v>52973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C110">
+        <v>53244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C111">
+        <v>54605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C112">
+        <v>56986</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C113">
+        <v>58207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C114">
+        <v>58350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C115">
+        <v>58715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C116">
+        <v>60179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B117" t="s">
+        <v>552</v>
+      </c>
+      <c r="C117">
+        <v>61421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C118">
+        <v>62509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C119">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C120">
+        <v>66811</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C121">
+        <v>68257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C122">
+        <v>68273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C123">
+        <v>69267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C124">
+        <v>70272</v>
+      </c>
+      <c r="D124">
+        <v>41075</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C125">
+        <v>71129</v>
+      </c>
+      <c r="D125">
+        <v>41037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C126">
+        <v>73108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C127">
+        <v>73471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C128">
+        <v>73731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C129">
+        <v>74198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C130">
+        <v>74442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C131">
+        <v>76644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C132">
+        <v>76756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C133">
+        <v>77327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C134">
+        <v>78647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C135">
+        <v>80007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C136">
+        <v>80404</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C137">
+        <v>81146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C138">
+        <v>81797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C139">
+        <v>81997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C140">
+        <v>82308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C141">
+        <v>82446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C142">
+        <v>83808</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C143">
+        <v>84441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C144">
+        <v>85503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C145">
+        <v>86440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C146">
+        <v>87504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C147">
+        <v>87737</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C148">
+        <v>87901</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C149">
+        <v>89021</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C150">
+        <v>89025</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C151">
+        <v>89484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C152">
+        <v>89758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C153">
+        <v>94264</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C154">
+        <v>95272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C155">
+        <v>95418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C156">
+        <v>95689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C157">
+        <v>97277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C158">
+        <v>97603</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C159">
+        <v>97633</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C160">
+        <v>98231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C161">
+        <v>98262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C162">
+        <v>98430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C163">
+        <v>99028</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C164">
+        <v>100029</v>
+      </c>
+      <c r="D164">
+        <v>56211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C165">
+        <v>102224</v>
+      </c>
+      <c r="D165">
+        <v>57399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C166">
+        <v>102647</v>
+      </c>
+      <c r="D166">
+        <v>57632</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C167">
+        <v>102870</v>
+      </c>
+      <c r="D167">
+        <v>57757</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C168">
+        <v>103287</v>
+      </c>
+      <c r="D168">
+        <v>58001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C169">
+        <v>105452</v>
+      </c>
+      <c r="D169">
+        <v>59199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C170">
+        <v>105707</v>
+      </c>
+      <c r="D170">
+        <v>59316</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C171">
+        <v>106591</v>
+      </c>
+      <c r="D171">
+        <v>59774</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C172">
+        <v>106625</v>
+      </c>
+      <c r="D172">
+        <v>59803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C173">
+        <v>107259</v>
+      </c>
+      <c r="D173">
+        <v>60129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C174">
+        <v>108248</v>
+      </c>
+      <c r="D174">
+        <v>60718</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C175">
+        <v>108381</v>
+      </c>
+      <c r="D175">
+        <v>60742</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C176">
+        <v>108767</v>
+      </c>
+      <c r="D176">
+        <v>60965</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C177">
+        <v>108903</v>
+      </c>
+      <c r="D177">
+        <v>61084</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C178">
+        <v>109358</v>
+      </c>
+      <c r="D178">
+        <v>61317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C179">
+        <v>109379</v>
+      </c>
+      <c r="D179">
+        <v>61359</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C180">
+        <v>110304</v>
+      </c>
+      <c r="D180">
+        <v>61932</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C181">
+        <v>110379</v>
+      </c>
+      <c r="D181">
+        <v>61941</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C182">
+        <v>111123</v>
+      </c>
+      <c r="D182">
+        <v>62434</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C183">
+        <v>112185</v>
+      </c>
+      <c r="D183">
+        <v>62956</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C184">
+        <v>112300</v>
+      </c>
+      <c r="D184">
+        <v>63090</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C185">
+        <v>112413</v>
+      </c>
+      <c r="D185">
+        <v>63125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>689</v>
+      </c>
+      <c r="C186">
+        <v>113226</v>
+      </c>
+      <c r="D186">
+        <v>63608</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C187">
+        <v>114378</v>
+      </c>
+      <c r="D187">
+        <v>64241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C188">
+        <v>114710</v>
+      </c>
+      <c r="D188">
+        <v>64394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C189">
+        <v>115659</v>
+      </c>
+      <c r="D189">
+        <v>64962</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C190">
+        <v>116656</v>
+      </c>
+      <c r="D190">
+        <v>65378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C191">
+        <v>116658</v>
+      </c>
+      <c r="D191">
+        <v>65474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B192" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>116842</v>
+      </c>
+      <c r="D192">
+        <v>65477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C193">
+        <v>118098</v>
+      </c>
+      <c r="D193">
+        <v>66249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C194">
+        <v>120315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C195">
+        <v>121370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C196">
+        <v>122451</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C197">
+        <v>123139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C198">
+        <v>123299</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C199">
+        <v>124675</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C200">
+        <v>124850</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B201" t="s">
+        <v>187</v>
+      </c>
+      <c r="C201">
+        <v>124897</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C202">
+        <v>125161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C203">
+        <v>125337</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C204">
+        <v>126660</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C205">
+        <v>127762</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B206" t="s">
+        <v>577</v>
+      </c>
+      <c r="C206">
+        <v>128620</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C207">
+        <v>129502</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B208" t="s">
+        <v>556</v>
+      </c>
+      <c r="C208">
+        <v>129989</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C209">
+        <v>130841</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C210">
+        <v>130945</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C211">
+        <v>131873</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C212">
+        <v>132200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C213">
+        <v>132742</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C214">
+        <v>133208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C215">
+        <v>133216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C216">
+        <v>135722</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C217">
+        <v>135742</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C218">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C219">
+        <v>137391</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C220">
+        <v>137422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C221">
+        <v>137759</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C222">
+        <v>137909</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C223">
+        <v>138905</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C224">
+        <v>139006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C225">
+        <v>139641</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C226">
+        <v>139669</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C227">
+        <v>140573</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C228">
+        <v>141003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C229">
+        <v>142198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C230">
+        <v>143275</v>
+      </c>
+      <c r="D230">
+        <v>78401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C231">
+        <v>143454</v>
+      </c>
+      <c r="D231">
+        <v>78322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C232">
+        <v>144217</v>
+      </c>
+      <c r="D232">
+        <v>78820</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C233">
+        <v>144542</v>
+      </c>
+      <c r="D233">
+        <v>78632</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C234">
+        <v>144608</v>
+      </c>
+      <c r="D234">
+        <v>78990</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C235">
+        <v>145001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B236" t="s">
+        <v>394</v>
+      </c>
+      <c r="C236">
+        <v>145502</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C237">
+        <v>146051</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C238">
+        <v>146791</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B239" t="s">
+        <v>127</v>
+      </c>
+      <c r="C239">
+        <v>147165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C240">
+        <v>148112</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B241" t="s">
+        <v>184</v>
+      </c>
+      <c r="C241">
+        <v>148478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C242">
+        <v>148856</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C243">
+        <v>148857</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C244">
+        <v>149757</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C245">
+        <v>150798</v>
+      </c>
+      <c r="D245">
+        <v>82273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C246">
+        <v>154906</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C247">
+        <v>155125</v>
+      </c>
+      <c r="D247">
+        <v>84012</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C248">
+        <v>155203</v>
+      </c>
+      <c r="D248">
+        <v>84143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C249">
+        <v>155763</v>
+      </c>
+      <c r="D249">
+        <v>83895</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C250">
+        <v>156014</v>
+      </c>
+      <c r="D250">
+        <v>84345</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C251">
+        <v>156164</v>
+      </c>
+      <c r="D251">
+        <v>84379</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B252" t="s">
+        <v>430</v>
+      </c>
+      <c r="C252">
+        <v>158408</v>
+      </c>
+      <c r="D252">
+        <v>85696</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C253">
+        <v>158427</v>
+      </c>
+      <c r="D253">
+        <v>85792</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C254">
+        <v>158899</v>
+      </c>
+      <c r="D254">
+        <v>85693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B255" t="s">
+        <v>623</v>
+      </c>
+      <c r="C255">
+        <v>158926</v>
+      </c>
+      <c r="D255">
+        <v>85927</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C256">
+        <v>159181</v>
+      </c>
+      <c r="D256">
+        <v>85670</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B257" t="s">
+        <v>603</v>
+      </c>
+      <c r="C257">
+        <v>159532</v>
+      </c>
+      <c r="D257">
+        <v>86228</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C258">
+        <v>159560</v>
+      </c>
+      <c r="D258">
+        <v>85829</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C259">
+        <v>159561</v>
+      </c>
+      <c r="D259">
+        <v>86032</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C260">
+        <v>160922</v>
+      </c>
+      <c r="D260">
+        <v>86201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C261">
+        <v>161096</v>
+      </c>
+      <c r="D261">
+        <v>86742</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C262">
+        <v>162003</v>
+      </c>
+      <c r="D262">
+        <v>86614</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C263">
+        <v>163588</v>
+      </c>
+      <c r="D263">
+        <v>87585</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C264">
+        <v>163917</v>
+      </c>
+      <c r="D264">
+        <v>88048</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C265">
+        <v>164058</v>
+      </c>
+      <c r="D265">
+        <v>87833</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C266">
+        <v>165135</v>
+      </c>
+      <c r="D266">
+        <v>88635</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C267">
+        <v>166205</v>
+      </c>
+      <c r="D267">
+        <v>85822</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C268">
+        <v>166937</v>
+      </c>
+      <c r="D268">
+        <v>89341</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C269">
+        <v>168454</v>
+      </c>
+      <c r="D269">
+        <v>89931</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C270">
+        <v>169022</v>
+      </c>
+      <c r="D270">
+        <v>90185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C271">
+        <v>169702</v>
+      </c>
+      <c r="D271">
+        <v>90191</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C272">
+        <v>169916</v>
+      </c>
+      <c r="D272">
+        <v>90496</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B273" t="s">
+        <v>687</v>
+      </c>
+      <c r="C273">
+        <v>172167</v>
+      </c>
+      <c r="D273">
+        <v>91262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C274">
+        <v>174638</v>
+      </c>
+      <c r="D274">
+        <v>92420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C275">
+        <v>174974</v>
+      </c>
+      <c r="D275">
+        <v>92761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C276">
+        <v>175191</v>
+      </c>
+      <c r="D276">
+        <v>92855</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C277">
+        <v>175638</v>
+      </c>
+      <c r="D277">
+        <v>92946</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C278">
+        <v>176411</v>
+      </c>
+      <c r="D278">
+        <v>93244</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C279">
+        <v>176437</v>
+      </c>
+      <c r="D279">
+        <v>93194</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C280">
+        <v>176687</v>
+      </c>
+      <c r="D280">
+        <v>93506</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C281">
+        <v>177241</v>
+      </c>
+      <c r="D281">
+        <v>93683</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C282">
+        <v>177482</v>
+      </c>
+      <c r="D282">
+        <v>104382</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C283">
+        <v>177724</v>
+      </c>
+      <c r="D283">
+        <v>93747</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C284">
+        <v>177756</v>
+      </c>
+      <c r="D284">
+        <v>93805</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C285">
+        <v>178253</v>
+      </c>
+      <c r="D285">
+        <v>94114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C286">
+        <v>178524</v>
+      </c>
+      <c r="D286">
+        <v>94141</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C287">
+        <v>180163</v>
+      </c>
+      <c r="D287">
+        <v>94481</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C288">
+        <v>180711</v>
+      </c>
+      <c r="D288">
+        <v>94376</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C289">
+        <v>181454</v>
+      </c>
+      <c r="D289">
+        <v>95241</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C290">
+        <v>181623</v>
+      </c>
+      <c r="D290">
+        <v>95294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C291">
+        <v>181869</v>
+      </c>
+      <c r="D291">
+        <v>95347</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C292">
+        <v>182640</v>
+      </c>
+      <c r="D292">
+        <v>95501</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C293">
+        <v>183439</v>
+      </c>
+      <c r="D293">
+        <v>95771</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C294">
+        <v>183912</v>
+      </c>
+      <c r="D294">
+        <v>95947</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C295">
+        <v>184930</v>
+      </c>
+      <c r="D295">
+        <v>96468</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C296">
+        <v>185144</v>
+      </c>
+      <c r="D296">
+        <v>96100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C297">
+        <v>185758</v>
+      </c>
+      <c r="D297">
+        <v>96757</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C298">
+        <v>186791</v>
+      </c>
+      <c r="D298">
+        <v>97278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>714</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C299">
+        <v>187642</v>
+      </c>
+      <c r="D299">
+        <v>97649</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C300">
+        <v>188119</v>
+      </c>
+      <c r="D300">
+        <v>97433</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C301">
+        <v>188376</v>
+      </c>
+      <c r="D301">
+        <v>98066</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C302">
+        <v>188512</v>
+      </c>
+      <c r="D302">
+        <v>98036</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C303">
+        <v>188603</v>
+      </c>
+      <c r="D303">
+        <v>98162</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C304">
+        <v>189103</v>
+      </c>
+      <c r="D304">
+        <v>98412</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C305">
+        <v>192876</v>
+      </c>
+      <c r="D305">
+        <v>100027</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C306">
+        <v>192947</v>
+      </c>
+      <c r="D306">
+        <v>100064</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C307">
+        <v>193432</v>
+      </c>
+      <c r="D307">
+        <v>100310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C308">
+        <v>193495</v>
+      </c>
+      <c r="D308">
+        <v>100345</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C309">
+        <v>193924</v>
+      </c>
+      <c r="D309">
+        <v>100751</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C310">
+        <v>194093</v>
+      </c>
+      <c r="D310">
+        <v>100453</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C311">
+        <v>194636</v>
+      </c>
+      <c r="D311">
+        <v>100881</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C312">
+        <v>194943</v>
+      </c>
+      <c r="D312">
+        <v>101027</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C313">
+        <v>195774</v>
+      </c>
+      <c r="D313">
+        <v>101243</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C314">
+        <v>195810</v>
+      </c>
+      <c r="D314">
+        <v>101421</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C315">
+        <v>196524</v>
+      </c>
+      <c r="D315">
+        <v>101769</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C316">
+        <v>196867</v>
+      </c>
+      <c r="D316">
+        <v>101958</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C317">
+        <v>197345</v>
+      </c>
+      <c r="D317">
+        <v>102098</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C318">
+        <v>197989</v>
+      </c>
+      <c r="D318">
+        <v>102488</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C319">
+        <v>198001</v>
+      </c>
+      <c r="D319">
+        <v>102618</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C320">
+        <v>200499</v>
+      </c>
+      <c r="D320">
+        <v>104019</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C321">
+        <v>200761</v>
+      </c>
+      <c r="D321">
+        <v>104139</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C322">
+        <v>202447</v>
+      </c>
+      <c r="D322">
+        <v>104987</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C323">
+        <v>203280</v>
+      </c>
+      <c r="D323">
+        <v>105199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C324">
+        <v>204867</v>
+      </c>
+      <c r="D324">
+        <v>106278</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C325">
+        <v>205021</v>
+      </c>
+      <c r="D325">
+        <v>106032</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C326">
+        <v>205637</v>
+      </c>
+      <c r="D326">
+        <v>106723</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C327">
+        <v>206088</v>
+      </c>
+      <c r="D327">
+        <v>106985</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C328">
+        <v>206672</v>
+      </c>
+      <c r="D328">
+        <v>107136</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C329">
+        <v>206778</v>
+      </c>
+      <c r="D329">
+        <v>107315</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C330">
+        <v>206936</v>
+      </c>
+      <c r="D330">
+        <v>107259</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C331">
+        <v>207098</v>
+      </c>
+      <c r="D331">
+        <v>107556</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C332">
+        <v>207971</v>
+      </c>
+      <c r="D332">
+        <v>108085</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C333">
+        <v>209750</v>
+      </c>
+      <c r="D333">
+        <v>109074</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C334">
+        <v>209790</v>
+      </c>
+      <c r="D334">
+        <v>108917</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C335">
+        <v>209952</v>
+      </c>
+      <c r="D335">
+        <v>109268</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C336">
+        <v>210418</v>
+      </c>
+      <c r="D336">
+        <v>109427</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C337">
+        <v>210745</v>
+      </c>
+      <c r="D337">
+        <v>109492</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C338">
+        <v>211391</v>
+      </c>
+      <c r="D338">
+        <v>110003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C339">
+        <v>212061</v>
+      </c>
+      <c r="D339">
+        <v>110395</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C340">
+        <v>212571</v>
+      </c>
+      <c r="D340">
+        <v>110672</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C341">
+        <v>214376</v>
+      </c>
+      <c r="D341">
+        <v>111710</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C342">
+        <v>214923</v>
+      </c>
+      <c r="D342">
+        <v>112029</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C343">
+        <v>215182</v>
+      </c>
+      <c r="D343">
+        <v>112158</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C344">
+        <v>215665</v>
+      </c>
+      <c r="D344">
+        <v>112440</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C345">
+        <v>216627</v>
+      </c>
+      <c r="D345">
+        <v>113136</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C346">
+        <v>216956</v>
+      </c>
+      <c r="D346">
+        <v>113368</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C347">
+        <v>217891</v>
+      </c>
+      <c r="D347">
+        <v>113889</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C348">
+        <v>217906</v>
+      </c>
+      <c r="D348">
+        <v>113881</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C349">
+        <v>218045</v>
+      </c>
+      <c r="D349">
+        <v>113963</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C350">
+        <v>220061</v>
+      </c>
+      <c r="D350">
+        <v>115250</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C351">
+        <v>222404</v>
+      </c>
+      <c r="D351">
+        <v>116727</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C352">
+        <v>224014</v>
+      </c>
+      <c r="D352">
+        <v>117863</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>